--- a/capiq_data/in_process_data/IQ34117.xlsx
+++ b/capiq_data/in_process_data/IQ34117.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A29241-C81D-4606-AEFB-54BFEAA4A983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D44819-44A0-42D0-8B9B-638E23333463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"18ae3d96-34a3-450d-a65b-a6333cb635cf"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d23f2741-ddce-4b54-b1d0-d66526396337"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-11.805</v>
+        <v>-2.7109999999999999</v>
       </c>
       <c r="D2">
-        <v>241.42599999999999</v>
+        <v>105.252</v>
       </c>
       <c r="E2">
-        <v>73.602999999999994</v>
+        <v>37.24</v>
       </c>
       <c r="F2">
-        <v>73.566999999999993</v>
+        <v>25.222999999999999</v>
       </c>
       <c r="G2">
-        <v>476.59199999999998</v>
+        <v>178.18</v>
       </c>
       <c r="H2">
-        <v>728.54499999999996</v>
+        <v>251.905</v>
       </c>
       <c r="I2">
-        <v>169.7</v>
+        <v>68.144000000000005</v>
       </c>
       <c r="J2">
-        <v>198.7</v>
+        <v>34.741</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>211.53800000000001</v>
+        <v>89.272000000000006</v>
       </c>
       <c r="O2">
-        <v>443.363</v>
+        <v>128.71</v>
       </c>
       <c r="P2">
-        <v>202.04900000000001</v>
+        <v>40.991</v>
       </c>
       <c r="Q2">
-        <v>-22.84</v>
+        <v>-0.83399999999999996</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="T2">
-        <v>285.18200000000002</v>
+        <v>123.19499999999999</v>
       </c>
       <c r="U2">
-        <v>9.7210000000000001</v>
+        <v>3.431</v>
       </c>
       <c r="V2">
-        <v>28.716999999999999</v>
+        <v>4.9630000000000001</v>
       </c>
       <c r="W2">
-        <v>-6.4379999999999997</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-49.47</v>
+        <v>-5.1349999999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-11.805</v>
+        <v>-2.7109999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-0.63800000000000001</v>
+        <v>1.042</v>
       </c>
       <c r="D3">
-        <v>312.88900000000001</v>
+        <v>155.20699999999999</v>
       </c>
       <c r="E3">
-        <v>173.78700000000001</v>
+        <v>104.649</v>
       </c>
       <c r="F3">
-        <v>91.41</v>
+        <v>38.103999999999999</v>
       </c>
       <c r="G3">
-        <v>641.05899999999997</v>
+        <v>291.16000000000003</v>
       </c>
       <c r="H3">
-        <v>896.64300000000003</v>
+        <v>386.10399999999998</v>
       </c>
       <c r="I3">
-        <v>303.39499999999998</v>
+        <v>154.39500000000001</v>
       </c>
       <c r="J3">
-        <v>180.15700000000001</v>
+        <v>58.985999999999997</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-85.888999999999996</v>
+        <v>-1.25</v>
       </c>
       <c r="N3">
-        <v>432.55500000000001</v>
+        <v>196.96100000000001</v>
       </c>
       <c r="O3">
-        <v>646.07299999999998</v>
+        <v>260.113</v>
       </c>
       <c r="P3">
-        <v>182.80199999999999</v>
+        <v>90.236000000000004</v>
       </c>
       <c r="Q3">
-        <v>1.6990000000000001</v>
+        <v>-0.375</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>250.57</v>
+        <v>125.991</v>
       </c>
       <c r="U3">
-        <v>11.42</v>
+        <v>3.056</v>
       </c>
       <c r="V3">
-        <v>-37.128</v>
+        <v>-2.452</v>
       </c>
       <c r="W3">
-        <v>-6.3209999999999997</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>45.011000000000003</v>
+        <v>25.818000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.63800000000000001</v>
+        <v>1.042</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>58.576999999999998</v>
+        <v>25.466000000000001</v>
       </c>
       <c r="D4">
-        <v>706.423</v>
+        <v>331.685</v>
       </c>
       <c r="E4">
-        <v>266.03199999999998</v>
+        <v>134.41800000000001</v>
       </c>
       <c r="F4">
-        <v>211.43899999999999</v>
+        <v>87.858000000000004</v>
       </c>
       <c r="G4">
-        <v>710.91600000000005</v>
+        <v>281.45</v>
       </c>
       <c r="H4">
-        <v>970.55</v>
+        <v>376.601</v>
       </c>
       <c r="I4">
-        <v>247.904</v>
+        <v>101.913</v>
       </c>
       <c r="J4">
-        <v>206.04900000000001</v>
+        <v>58.026000000000003</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>427.73099999999999</v>
+        <v>162.43899999999999</v>
       </c>
       <c r="O4">
-        <v>667.59400000000005</v>
+        <v>224.923</v>
       </c>
       <c r="P4">
-        <v>207.98</v>
+        <v>86.775999999999996</v>
       </c>
       <c r="Q4">
-        <v>25.797999999999998</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>302.95600000000002</v>
+        <v>151.678</v>
       </c>
       <c r="U4">
-        <v>37.218000000000004</v>
+        <v>2.9620000000000002</v>
       </c>
       <c r="V4">
-        <v>18.189</v>
+        <v>4.46</v>
       </c>
       <c r="W4">
-        <v>-6.7530000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>14.760999999999999</v>
+        <v>-1.0780000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>58.576999999999998</v>
+        <v>25.466000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>24.169</v>
+        <v>12.752000000000001</v>
       </c>
       <c r="D5">
-        <v>503.584</v>
+        <v>235.74199999999999</v>
       </c>
       <c r="E5">
-        <v>160.64699999999999</v>
+        <v>87.307000000000002</v>
       </c>
       <c r="F5">
-        <v>147.90600000000001</v>
+        <v>61.658999999999999</v>
       </c>
       <c r="G5">
-        <v>536.5</v>
+        <v>240.18100000000001</v>
       </c>
       <c r="H5">
-        <v>798.21199999999999</v>
+        <v>335.887</v>
       </c>
       <c r="I5">
-        <v>120.221</v>
+        <v>74.197000000000003</v>
       </c>
       <c r="J5">
-        <v>268.7</v>
+        <v>62.591000000000001</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>190.96100000000001</v>
+        <v>118.361</v>
       </c>
       <c r="O5">
-        <v>493.71300000000002</v>
+        <v>185.72900000000001</v>
       </c>
       <c r="P5">
-        <v>269.80399999999997</v>
+        <v>70.090999999999994</v>
       </c>
       <c r="Q5">
-        <v>-16.562000000000001</v>
+        <v>11.231</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>304.49900000000002</v>
+        <v>150.15799999999999</v>
       </c>
       <c r="U5">
-        <v>20.655999999999999</v>
+        <v>14.193</v>
       </c>
       <c r="V5">
-        <v>50.912999999999997</v>
+        <v>42.767000000000003</v>
       </c>
       <c r="W5">
-        <v>-6.7240000000000002</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-61.322000000000003</v>
+        <v>-10.413</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-6.4000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>24.169</v>
+        <v>12.752000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-10.115</v>
+        <v>-3.8159999999999998</v>
       </c>
       <c r="D6">
-        <v>270.42200000000003</v>
+        <v>131.6</v>
       </c>
       <c r="E6">
-        <v>78.138999999999996</v>
+        <v>42.898000000000003</v>
       </c>
       <c r="F6">
-        <v>80.834999999999994</v>
+        <v>33.253</v>
       </c>
       <c r="G6">
-        <v>532.06600000000003</v>
+        <v>250.333</v>
       </c>
       <c r="H6">
-        <v>770.90200000000004</v>
+        <v>348.59</v>
       </c>
       <c r="I6">
-        <v>177.43700000000001</v>
+        <v>95.587999999999994</v>
       </c>
       <c r="J6">
-        <v>247.3</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>226.59899999999999</v>
+        <v>113.477</v>
       </c>
       <c r="O6">
-        <v>491.15600000000001</v>
+        <v>204.018</v>
       </c>
       <c r="P6">
-        <v>247.72</v>
+        <v>85.090999999999994</v>
       </c>
       <c r="Q6">
-        <v>-3.169</v>
+        <v>-10.669</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>3300</v>
+        <v>1900</v>
       </c>
       <c r="T6">
-        <v>279.74599999999998</v>
+        <v>144.572</v>
       </c>
       <c r="U6">
-        <v>17.486999999999998</v>
+        <v>3.524</v>
       </c>
       <c r="V6">
-        <v>43.128999999999998</v>
+        <v>-18.021999999999998</v>
       </c>
       <c r="W6">
-        <v>-6.6719999999999997</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-39.003999999999998</v>
+        <v>15.94</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-10.115</v>
+        <v>-3.8159999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>3.6509999999999998</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="D7">
-        <v>361.95400000000001</v>
+        <v>171.35400000000001</v>
       </c>
       <c r="E7">
-        <v>201.792</v>
+        <v>99.778999999999996</v>
       </c>
       <c r="F7">
-        <v>104.563</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="G7">
-        <v>709.61</v>
+        <v>330.83699999999999</v>
       </c>
       <c r="H7">
-        <v>974.26499999999999</v>
+        <v>427.815</v>
       </c>
       <c r="I7">
-        <v>319.46199999999999</v>
+        <v>153.28399999999999</v>
       </c>
       <c r="J7">
-        <v>299.01100000000002</v>
+        <v>108</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.091</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-163.70500000000001</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>353.72500000000002</v>
+        <v>166.25399999999999</v>
       </c>
       <c r="O7">
-        <v>692.69899999999996</v>
+        <v>279.79500000000002</v>
       </c>
       <c r="P7">
-        <v>299.56200000000001</v>
+        <v>109.09099999999999</v>
       </c>
       <c r="Q7">
-        <v>3.194</v>
+        <v>3.7309999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>281.56599999999997</v>
+        <v>148.02000000000001</v>
       </c>
       <c r="U7">
-        <v>20.681000000000001</v>
+        <v>7.2549999999999999</v>
       </c>
       <c r="V7">
-        <v>-34.027000000000001</v>
+        <v>-19.253</v>
       </c>
       <c r="W7">
-        <v>-6.6680000000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>47.984999999999999</v>
+        <v>24.385999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-5.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>3.6509999999999998</v>
+        <v>1.9019999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>64.942999999999998</v>
+        <v>28.602</v>
       </c>
       <c r="D8">
-        <v>757.17499999999995</v>
+        <v>364.08800000000002</v>
       </c>
       <c r="E8">
-        <v>270.089</v>
+        <v>144.59399999999999</v>
       </c>
       <c r="F8">
-        <v>222.405</v>
+        <v>96.694999999999993</v>
       </c>
       <c r="G8">
-        <v>742.84</v>
+        <v>332.34300000000002</v>
       </c>
       <c r="H8">
-        <v>1007.014</v>
+        <v>428.911</v>
       </c>
       <c r="I8">
-        <v>267.99</v>
+        <v>120.908</v>
       </c>
       <c r="J8">
-        <v>309.81299999999999</v>
+        <v>97.525000000000006</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>355.62599999999998</v>
+        <v>158.809</v>
       </c>
       <c r="O8">
-        <v>704.63599999999997</v>
+        <v>261.875</v>
       </c>
       <c r="P8">
-        <v>312.42099999999999</v>
+        <v>97.616</v>
       </c>
       <c r="Q8">
-        <v>29.63</v>
+        <v>4.7050000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>302.37799999999999</v>
+        <v>167.036</v>
       </c>
       <c r="U8">
-        <v>50.311</v>
+        <v>11.96</v>
       </c>
       <c r="V8">
-        <v>67.548000000000002</v>
+        <v>27.631</v>
       </c>
       <c r="W8">
-        <v>-7.5549999999999997</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-34.085000000000001</v>
+        <v>-21.704000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>64.942999999999998</v>
+        <v>28.602</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>21.375</v>
+        <v>14.204000000000001</v>
       </c>
       <c r="D9">
-        <v>528.02700000000004</v>
+        <v>288.79899999999998</v>
       </c>
       <c r="E9">
-        <v>175.459</v>
+        <v>113.628</v>
       </c>
       <c r="F9">
-        <v>151.501</v>
+        <v>75.069000000000003</v>
       </c>
       <c r="G9">
-        <v>573.24099999999999</v>
+        <v>270.21499999999997</v>
       </c>
       <c r="H9">
-        <v>831.38300000000004</v>
+        <v>402.274</v>
       </c>
       <c r="I9">
-        <v>163.54300000000001</v>
+        <v>69.358000000000004</v>
       </c>
       <c r="J9">
-        <v>214.328</v>
+        <v>147.09100000000001</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>266.37099999999998</v>
+        <v>102.19499999999999</v>
       </c>
       <c r="O9">
-        <v>518.91300000000001</v>
+        <v>255.02</v>
       </c>
       <c r="P9">
-        <v>217.97800000000001</v>
+        <v>148.06800000000001</v>
       </c>
       <c r="Q9">
-        <v>-21.492999999999999</v>
+        <v>-0.39400000000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>312.47000000000003</v>
+        <v>147.25399999999999</v>
       </c>
       <c r="U9">
-        <v>28.818000000000001</v>
+        <v>11.566000000000001</v>
       </c>
       <c r="V9">
-        <v>91.009</v>
+        <v>32.667000000000002</v>
       </c>
       <c r="W9">
-        <v>-7.4459999999999997</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-107.932</v>
+        <v>11.579000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>21.375</v>
+        <v>14.204000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-7.9969999999999999</v>
+        <v>-3.4049999999999998</v>
       </c>
       <c r="D10">
-        <v>306.81799999999998</v>
+        <v>159.005</v>
       </c>
       <c r="E10">
-        <v>80.7</v>
+        <v>54.954000000000001</v>
       </c>
       <c r="F10">
-        <v>88.938000000000002</v>
+        <v>40.265999999999998</v>
       </c>
       <c r="G10">
-        <v>543.096</v>
+        <v>263.07400000000001</v>
       </c>
       <c r="H10">
-        <v>780.57600000000002</v>
+        <v>402.09399999999999</v>
       </c>
       <c r="I10">
-        <v>199.78700000000001</v>
+        <v>93.307000000000002</v>
       </c>
       <c r="J10">
-        <v>230.88200000000001</v>
+        <v>125.175</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>247.99600000000001</v>
+        <v>118.9</v>
       </c>
       <c r="O10">
-        <v>498.95299999999997</v>
+        <v>260.15300000000002</v>
       </c>
       <c r="P10">
-        <v>230.88200000000001</v>
+        <v>126.06</v>
       </c>
       <c r="Q10">
-        <v>-16.355</v>
+        <v>-6.4340000000000002</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="T10">
-        <v>281.62299999999999</v>
+        <v>141.941</v>
       </c>
       <c r="U10">
-        <v>12.462999999999999</v>
+        <v>5.1319999999999997</v>
       </c>
       <c r="V10">
-        <v>-5.452</v>
+        <v>17.117000000000001</v>
       </c>
       <c r="W10">
-        <v>-7.4660000000000002</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-8.6120000000000001</v>
+        <v>-19.483000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-7.9969999999999999</v>
+        <v>-3.4049999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>3.44</v>
+        <v>1.484</v>
       </c>
       <c r="D11">
-        <v>370.36200000000002</v>
+        <v>196.38800000000001</v>
       </c>
       <c r="E11">
-        <v>188.29400000000001</v>
+        <v>122.629</v>
       </c>
       <c r="F11">
-        <v>104.761</v>
+        <v>52.523000000000003</v>
       </c>
       <c r="G11">
-        <v>713.67</v>
+        <v>370.35</v>
       </c>
       <c r="H11">
-        <v>953.74</v>
+        <v>510.24900000000002</v>
       </c>
       <c r="I11">
-        <v>338.02600000000001</v>
+        <v>176.411</v>
       </c>
       <c r="J11">
-        <v>278.54199999999997</v>
+        <v>115.65</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>45.594999999999999</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-9.5250000000000004</v>
       </c>
       <c r="M11">
-        <v>-102.105</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>368.46</v>
+        <v>237.46299999999999</v>
       </c>
       <c r="O11">
-        <v>668.75800000000004</v>
+        <v>369.197</v>
       </c>
       <c r="P11">
-        <v>281.60300000000001</v>
+        <v>162.13</v>
       </c>
       <c r="Q11">
-        <v>0.41</v>
+        <v>-2.0459999999999998</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>284.98200000000003</v>
+        <v>141.05199999999999</v>
       </c>
       <c r="U11">
-        <v>12.872999999999999</v>
+        <v>3.0859999999999999</v>
       </c>
       <c r="V11">
-        <v>-39.985999999999997</v>
+        <v>-33.710999999999999</v>
       </c>
       <c r="W11">
-        <v>-7.4340000000000002</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>44.533000000000001</v>
+        <v>33.475999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>3.44</v>
+        <v>1.484</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>66.533000000000001</v>
+        <v>33.963000000000001</v>
       </c>
       <c r="D12">
-        <v>790.39200000000005</v>
+        <v>431.88499999999999</v>
       </c>
       <c r="E12">
-        <v>281.06400000000002</v>
+        <v>174.97399999999999</v>
       </c>
       <c r="F12">
-        <v>228.166</v>
+        <v>120.86199999999999</v>
       </c>
       <c r="G12">
-        <v>748.00099999999998</v>
+        <v>411.87299999999999</v>
       </c>
       <c r="H12">
-        <v>990.00900000000001</v>
+        <v>553.91600000000005</v>
       </c>
       <c r="I12">
-        <v>239.976</v>
+        <v>156.69499999999999</v>
       </c>
       <c r="J12">
-        <v>300.42599999999999</v>
+        <v>65.528999999999996</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>319.83999999999997</v>
+        <v>296.18599999999998</v>
       </c>
       <c r="O12">
-        <v>643.4</v>
+        <v>377.82499999999999</v>
       </c>
       <c r="P12">
-        <v>301.85700000000003</v>
+        <v>156.41399999999999</v>
       </c>
       <c r="Q12">
-        <v>14.063000000000001</v>
+        <v>29.099</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>346.60899999999998</v>
+        <v>176.09100000000001</v>
       </c>
       <c r="U12">
-        <v>26.936</v>
+        <v>32.185000000000002</v>
       </c>
       <c r="V12">
-        <v>7.008</v>
+        <v>41.851999999999997</v>
       </c>
       <c r="W12">
-        <v>-8.8740000000000006</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>14.932</v>
+        <v>-7.2110000000000003</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>66.533000000000001</v>
+        <v>33.963000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>32.332000000000001</v>
+        <v>18.395</v>
       </c>
       <c r="D13">
-        <v>578.15700000000004</v>
+        <v>337.61099999999999</v>
       </c>
       <c r="E13">
-        <v>180.898</v>
+        <v>117.94199999999999</v>
       </c>
       <c r="F13">
-        <v>162.55699999999999</v>
+        <v>92.156999999999996</v>
       </c>
       <c r="G13">
-        <v>583.93200000000002</v>
+        <v>295.517</v>
       </c>
       <c r="H13">
-        <v>826.87400000000002</v>
+        <v>437.94</v>
       </c>
       <c r="I13">
-        <v>142.77699999999999</v>
+        <v>73.62</v>
       </c>
       <c r="J13">
-        <v>260.43200000000002</v>
+        <v>43.033000000000001</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>62.27</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>207.529</v>
+        <v>183.42599999999999</v>
       </c>
       <c r="O13">
-        <v>491.04300000000001</v>
+        <v>241.714</v>
       </c>
       <c r="P13">
-        <v>262.34100000000001</v>
+        <v>106.188</v>
       </c>
       <c r="Q13">
-        <v>-2.714</v>
+        <v>-2.4710000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>335.83100000000002</v>
+        <v>196.226</v>
       </c>
       <c r="U13">
-        <v>24.222000000000001</v>
+        <v>29.713999999999999</v>
       </c>
       <c r="V13">
-        <v>86.823999999999998</v>
+        <v>50.021000000000001</v>
       </c>
       <c r="W13">
-        <v>-8.8119999999999994</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-85.418999999999997</v>
+        <v>-49.417000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>4.7E-2</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>32.332000000000001</v>
+        <v>18.396000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-4.9749999999999996</v>
+        <v>-2.9940000000000002</v>
       </c>
       <c r="D14">
-        <v>340.78899999999999</v>
+        <v>189.94900000000001</v>
       </c>
       <c r="E14">
-        <v>9.6029999999999998</v>
+        <v>64.650000000000006</v>
       </c>
       <c r="F14">
-        <v>95.793000000000006</v>
+        <v>49.597000000000001</v>
       </c>
       <c r="G14">
-        <v>577.74900000000002</v>
+        <v>296.39600000000002</v>
       </c>
       <c r="H14">
-        <v>823.76099999999997</v>
+        <v>450.27199999999999</v>
       </c>
       <c r="I14">
-        <v>214.596</v>
+        <v>118.312</v>
       </c>
       <c r="J14">
-        <v>246.41800000000001</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>42.417999999999999</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>263.90600000000001</v>
+        <v>236.36600000000001</v>
       </c>
       <c r="O14">
-        <v>537.57899999999995</v>
+        <v>255.03100000000001</v>
       </c>
       <c r="P14">
-        <v>246.41800000000001</v>
+        <v>86.275000000000006</v>
       </c>
       <c r="Q14">
-        <v>-16.216000000000001</v>
+        <v>-16.902000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3600</v>
+        <v>2450</v>
       </c>
       <c r="T14">
-        <v>286.18200000000002</v>
+        <v>195.24100000000001</v>
       </c>
       <c r="U14">
-        <v>8.0060000000000002</v>
+        <v>12.811999999999999</v>
       </c>
       <c r="V14">
-        <v>51.241999999999997</v>
+        <v>19.972000000000001</v>
       </c>
       <c r="W14">
-        <v>-8.6880000000000006</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-63.530999999999999</v>
+        <v>-19.199000000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>4.9000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-4.9749999999999996</v>
+        <v>-2.9940000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>4.1879999999999997</v>
+        <v>4.08</v>
       </c>
       <c r="D15">
-        <v>406.34399999999999</v>
+        <v>234.648</v>
       </c>
       <c r="E15">
-        <v>47.694000000000003</v>
+        <v>147.09700000000001</v>
       </c>
       <c r="F15">
-        <v>114.1</v>
+        <v>65.031999999999996</v>
       </c>
       <c r="G15">
-        <v>761.03899999999999</v>
+        <v>400.57</v>
       </c>
       <c r="H15">
-        <v>1013.2</v>
+        <v>553.96</v>
       </c>
       <c r="I15">
-        <v>370.00200000000001</v>
+        <v>166.30500000000001</v>
       </c>
       <c r="J15">
-        <v>324.226</v>
+        <v>3.472</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>49.997999999999998</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-30.04</v>
       </c>
       <c r="M15">
-        <v>-173.749</v>
+        <v>-9.0980000000000008</v>
       </c>
       <c r="N15">
-        <v>398.07499999999999</v>
+        <v>325.44499999999999</v>
       </c>
       <c r="O15">
-        <v>751.52200000000005</v>
+        <v>354.28399999999999</v>
       </c>
       <c r="P15">
-        <v>325.74599999999998</v>
+        <v>147.715</v>
       </c>
       <c r="Q15">
-        <v>-0.749</v>
+        <v>-9.9529999999999994</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>261.678</v>
+        <v>199.67599999999999</v>
       </c>
       <c r="U15">
-        <v>7.2569999999999997</v>
+        <v>2.859</v>
       </c>
       <c r="V15">
-        <v>-37.344999999999999</v>
+        <v>-69.858000000000004</v>
       </c>
       <c r="W15">
-        <v>-8.5690000000000008</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>47.789000000000001</v>
+        <v>61.348999999999997</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>4.9000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>4.1879999999999997</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>73.863</v>
+        <v>43.594999999999999</v>
       </c>
       <c r="D16">
-        <v>848.24</v>
+        <v>504.17700000000002</v>
       </c>
       <c r="E16">
-        <v>97.527000000000001</v>
+        <v>197.68299999999999</v>
       </c>
       <c r="F16">
-        <v>246.976</v>
+        <v>145.215</v>
       </c>
       <c r="G16">
-        <v>801.04100000000005</v>
+        <v>449.83</v>
       </c>
       <c r="H16">
-        <v>1055.4480000000001</v>
+        <v>602.03200000000004</v>
       </c>
       <c r="I16">
-        <v>233.54900000000001</v>
+        <v>144.029</v>
       </c>
       <c r="J16">
-        <v>430.971</v>
+        <v>3.3439999999999999</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>322.74900000000002</v>
+        <v>348.28500000000003</v>
       </c>
       <c r="O16">
-        <v>784.13099999999997</v>
+        <v>376.96100000000001</v>
       </c>
       <c r="P16">
-        <v>433.05700000000002</v>
+        <v>157.32400000000001</v>
       </c>
       <c r="Q16">
-        <v>20.306000000000001</v>
+        <v>18.265000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>271.31700000000001</v>
+        <v>225.071</v>
       </c>
       <c r="U16">
-        <v>27.562999999999999</v>
+        <v>21.123999999999999</v>
       </c>
       <c r="V16">
-        <v>-13.542999999999999</v>
+        <v>28.690999999999999</v>
       </c>
       <c r="W16">
-        <v>-9.8409999999999993</v>
+        <v>-3.528</v>
       </c>
       <c r="X16">
-        <v>39.863999999999997</v>
+        <v>-8.3870000000000005</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>4.7E-2</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>73.863</v>
+        <v>43.594999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>34.835999999999999</v>
+        <v>22.01</v>
       </c>
       <c r="D17">
-        <v>615.53599999999994</v>
+        <v>362.09100000000001</v>
       </c>
       <c r="E17">
-        <v>69.846999999999994</v>
+        <v>130.36000000000001</v>
       </c>
       <c r="F17">
-        <v>176.244</v>
+        <v>104.18300000000001</v>
       </c>
       <c r="G17">
-        <v>651.89</v>
+        <v>335.49</v>
       </c>
       <c r="H17">
-        <v>909.23599999999999</v>
+        <v>486.45499999999998</v>
       </c>
       <c r="I17">
-        <v>154.511</v>
+        <v>76.453999999999994</v>
       </c>
       <c r="J17">
-        <v>391.12</v>
+        <v>3.0430000000000001</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>69.77</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>232.351</v>
+        <v>217.30500000000001</v>
       </c>
       <c r="O17">
-        <v>653.43200000000002</v>
+        <v>244.77199999999999</v>
       </c>
       <c r="P17">
-        <v>394.97699999999998</v>
+        <v>98.662999999999997</v>
       </c>
       <c r="Q17">
-        <v>-13.108000000000001</v>
+        <v>9.3030000000000008</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>255.804</v>
+        <v>241.68299999999999</v>
       </c>
       <c r="U17">
-        <v>14.455</v>
+        <v>30.427</v>
       </c>
       <c r="V17">
-        <v>88.108000000000004</v>
+        <v>72.048000000000002</v>
       </c>
       <c r="W17">
-        <v>-9.6649999999999991</v>
+        <v>-3.5249999999999999</v>
       </c>
       <c r="X17">
-        <v>-92.335999999999999</v>
+        <v>-62.393999999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>3.6999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>34.835999999999999</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-2.1949999999999998</v>
+        <v>-2.7440000000000002</v>
       </c>
       <c r="D18">
-        <v>376.44200000000001</v>
+        <v>209.93700000000001</v>
       </c>
       <c r="E18">
-        <v>13.55</v>
+        <v>71.108999999999995</v>
       </c>
       <c r="F18">
-        <v>106.02</v>
+        <v>56.404000000000003</v>
       </c>
       <c r="G18">
-        <v>637.21299999999997</v>
+        <v>323.53500000000003</v>
       </c>
       <c r="H18">
-        <v>892.93700000000001</v>
+        <v>480.86599999999999</v>
       </c>
       <c r="I18">
-        <v>236.29400000000001</v>
+        <v>113.114</v>
       </c>
       <c r="J18">
-        <v>319.30900000000003</v>
+        <v>50.42</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>42.594999999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>291.90800000000002</v>
+        <v>195.346</v>
       </c>
       <c r="O18">
-        <v>645.47199999999998</v>
+        <v>260.53100000000001</v>
       </c>
       <c r="P18">
-        <v>320.83800000000002</v>
+        <v>94.364999999999995</v>
       </c>
       <c r="Q18">
-        <v>0.375</v>
+        <v>-8.6649999999999991</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="T18">
-        <v>247.465</v>
+        <v>220.33500000000001</v>
       </c>
       <c r="U18">
-        <v>14.83</v>
+        <v>21.762</v>
       </c>
       <c r="V18">
-        <v>84.594999999999999</v>
+        <v>25.553999999999998</v>
       </c>
       <c r="W18">
-        <v>-9.5250000000000004</v>
+        <v>-3.653</v>
       </c>
       <c r="X18">
-        <v>-77.3</v>
+        <v>-25.989000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3.2000000000000001E-2</v>
+        <v>-6.9610000000000003</v>
       </c>
       <c r="AA18">
-        <v>-2.1949999999999998</v>
+        <v>-2.7440000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>8.4190000000000005</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="D19">
-        <v>450.43</v>
+        <v>265.161</v>
       </c>
       <c r="E19">
-        <v>56.116999999999997</v>
+        <v>164.50700000000001</v>
       </c>
       <c r="F19">
-        <v>124.801</v>
+        <v>71.950999999999993</v>
       </c>
       <c r="G19">
-        <v>817.19200000000001</v>
+        <v>466.75</v>
       </c>
       <c r="H19">
-        <v>1084.414</v>
+        <v>623.36400000000003</v>
       </c>
       <c r="I19">
-        <v>375.995</v>
+        <v>219.29</v>
       </c>
       <c r="J19">
-        <v>394.55900000000003</v>
+        <v>82.914000000000001</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>57.664999999999999</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-44.884</v>
       </c>
       <c r="M19">
-        <v>-206.666</v>
+        <v>-4.7880000000000003</v>
       </c>
       <c r="N19">
-        <v>408.18299999999999</v>
+        <v>301.34300000000002</v>
       </c>
       <c r="O19">
-        <v>840.01400000000001</v>
+        <v>398.99700000000001</v>
       </c>
       <c r="P19">
-        <v>398.28699999999998</v>
+        <v>141.929</v>
       </c>
       <c r="Q19">
-        <v>-9.782</v>
+        <v>-7.1970000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>244.4</v>
+        <v>224.36699999999999</v>
       </c>
       <c r="U19">
-        <v>5.048</v>
+        <v>14.565</v>
       </c>
       <c r="V19">
-        <v>-57.652999999999999</v>
+        <v>-50.966999999999999</v>
       </c>
       <c r="W19">
-        <v>-9.6069999999999993</v>
+        <v>-3.6720000000000002</v>
       </c>
       <c r="X19">
-        <v>65.688000000000002</v>
+        <v>46.59</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-5.7000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>8.4190000000000005</v>
+        <v>4.1020000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>77.924000000000007</v>
+        <v>50.709000000000003</v>
       </c>
       <c r="D20">
-        <v>851.85500000000002</v>
+        <v>563.97799999999995</v>
       </c>
       <c r="E20">
-        <v>93.709000000000003</v>
+        <v>231.73599999999999</v>
       </c>
       <c r="F20">
-        <v>248.26</v>
+        <v>162.68100000000001</v>
       </c>
       <c r="G20">
-        <v>845.13400000000001</v>
+        <v>524.59900000000005</v>
       </c>
       <c r="H20">
-        <v>1111.5820000000001</v>
+        <v>684.77300000000002</v>
       </c>
       <c r="I20">
-        <v>236.86799999999999</v>
+        <v>165.87200000000001</v>
       </c>
       <c r="J20">
-        <v>491.82</v>
+        <v>70.191000000000003</v>
       </c>
       <c r="K20">
-        <v>3.43</v>
+        <v>100</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>320.77800000000002</v>
+        <v>325.21899999999999</v>
       </c>
       <c r="O20">
-        <v>850.077</v>
+        <v>411.73500000000001</v>
       </c>
       <c r="P20">
-        <v>498.68</v>
+        <v>171.541</v>
       </c>
       <c r="Q20">
-        <v>33.896000000000001</v>
+        <v>22.087</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>261.505</v>
+        <v>273.03800000000001</v>
       </c>
       <c r="U20">
-        <v>38.944000000000003</v>
+        <v>36.652000000000001</v>
       </c>
       <c r="V20">
-        <v>1.0069999999999999</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="W20">
-        <v>-11.247999999999999</v>
+        <v>-4.7290000000000001</v>
       </c>
       <c r="X20">
-        <v>38.107999999999997</v>
+        <v>26.494</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0.11600000000000001</v>
+        <v>-1.121</v>
       </c>
       <c r="AA20">
-        <v>77.924000000000007</v>
+        <v>50.709000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>39.445999999999998</v>
+        <v>26.521000000000001</v>
       </c>
       <c r="D21">
-        <v>645.779</v>
+        <v>423.72899999999998</v>
       </c>
       <c r="E21">
-        <v>70.399000000000001</v>
+        <v>152.03700000000001</v>
       </c>
       <c r="F21">
-        <v>184.28800000000001</v>
+        <v>114.605</v>
       </c>
       <c r="G21">
-        <v>676.18299999999999</v>
+        <v>401.23500000000001</v>
       </c>
       <c r="H21">
-        <v>942.39599999999996</v>
+        <v>565.83100000000002</v>
       </c>
       <c r="I21">
-        <v>170.58199999999999</v>
+        <v>99.92</v>
       </c>
       <c r="J21">
-        <v>393.06700000000001</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.96499999999999997</v>
+        <v>83.17</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>249.679</v>
+        <v>253.58799999999999</v>
       </c>
       <c r="O21">
-        <v>678.71699999999998</v>
+        <v>269.10599999999999</v>
       </c>
       <c r="P21">
-        <v>399.64299999999997</v>
+        <v>84.52</v>
       </c>
       <c r="Q21">
-        <v>-9.44</v>
+        <v>7.992</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>263.67899999999997</v>
+        <v>296.72500000000002</v>
       </c>
       <c r="U21">
-        <v>29.504000000000001</v>
+        <v>44.643999999999998</v>
       </c>
       <c r="V21">
-        <v>134.62899999999999</v>
+        <v>103.28100000000001</v>
       </c>
       <c r="W21">
-        <v>-11.153</v>
+        <v>-4.7510000000000003</v>
       </c>
       <c r="X21">
-        <v>-136.26</v>
+        <v>-91.83</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1.6E-2</v>
+        <v>-2.468</v>
       </c>
       <c r="AA21">
-        <v>39.447000000000003</v>
+        <v>26.521000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>2.4860000000000002</v>
+        <v>-0.877</v>
       </c>
       <c r="D22">
-        <v>415.07499999999999</v>
+        <v>299.791</v>
       </c>
       <c r="E22">
-        <v>13.63</v>
+        <v>105.227</v>
       </c>
       <c r="F22">
-        <v>118.295</v>
+        <v>83.210999999999999</v>
       </c>
       <c r="G22">
-        <v>661.74400000000003</v>
+        <v>508.14299999999997</v>
       </c>
       <c r="H22">
-        <v>934.36099999999999</v>
+        <v>740.85</v>
       </c>
       <c r="I22">
-        <v>246.554</v>
+        <v>174.17</v>
       </c>
       <c r="J22">
-        <v>326.34500000000003</v>
+        <v>129.1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>65.656999999999996</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>304.84500000000003</v>
+        <v>314.61799999999999</v>
       </c>
       <c r="O22">
-        <v>675.95299999999997</v>
+        <v>459.12599999999998</v>
       </c>
       <c r="P22">
-        <v>328.04500000000002</v>
+        <v>194.75700000000001</v>
       </c>
       <c r="Q22">
-        <v>-16.266999999999999</v>
+        <v>-17.777999999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="T22">
-        <v>258.40800000000002</v>
+        <v>281.72399999999999</v>
       </c>
       <c r="U22">
-        <v>13.237</v>
+        <v>26.866</v>
       </c>
       <c r="V22">
-        <v>68.066999999999993</v>
+        <v>-12.82</v>
       </c>
       <c r="W22">
-        <v>-11.109</v>
+        <v>-4.71</v>
       </c>
       <c r="X22">
-        <v>-75.34</v>
+        <v>86.896000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1.2999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AA22">
-        <v>2.4860000000000002</v>
+        <v>-0.877</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>16.370999999999999</v>
+        <v>6.4219999999999997</v>
       </c>
       <c r="D23">
-        <v>515.25</v>
+        <v>348.55599999999998</v>
       </c>
       <c r="E23">
-        <v>67.802000000000007</v>
+        <v>211.578</v>
       </c>
       <c r="F23">
-        <v>143.023</v>
+        <v>98.048000000000002</v>
       </c>
       <c r="G23">
-        <v>907.67399999999998</v>
+        <v>633.01499999999999</v>
       </c>
       <c r="H23">
-        <v>1193.241</v>
+        <v>865.62599999999998</v>
       </c>
       <c r="I23">
-        <v>438.70499999999998</v>
+        <v>267.29599999999999</v>
       </c>
       <c r="J23">
-        <v>444.46100000000001</v>
+        <v>155.16300000000001</v>
       </c>
       <c r="K23">
-        <v>5.9960000000000004</v>
+        <v>80.275000000000006</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-44.4</v>
       </c>
       <c r="M23">
-        <v>-235.65199999999999</v>
+        <v>-9.2840000000000007</v>
       </c>
       <c r="N23">
-        <v>494.07100000000003</v>
+        <v>401.49799999999999</v>
       </c>
       <c r="O23">
-        <v>984.23699999999997</v>
+        <v>571.62099999999998</v>
       </c>
       <c r="P23">
-        <v>456.67899999999997</v>
+        <v>237.53800000000001</v>
       </c>
       <c r="Q23">
-        <v>-3.2719999999999998</v>
+        <v>-20.902000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>209.00399999999999</v>
+        <v>294.005</v>
       </c>
       <c r="U23">
-        <v>9.9649999999999999</v>
+        <v>5.9640000000000004</v>
       </c>
       <c r="V23">
-        <v>-39.753</v>
+        <v>-60.658999999999999</v>
       </c>
       <c r="W23">
-        <v>-10.927</v>
+        <v>-4.75</v>
       </c>
       <c r="X23">
-        <v>53.115000000000002</v>
+        <v>44.256999999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>16.370999999999999</v>
+        <v>6.4219999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>85.435000000000002</v>
+        <v>62.11</v>
       </c>
       <c r="D24">
-        <v>918.88900000000001</v>
+        <v>705.70299999999997</v>
       </c>
       <c r="E24">
-        <v>119.113</v>
+        <v>295.72199999999998</v>
       </c>
       <c r="F24">
-        <v>270.73599999999999</v>
+        <v>209</v>
       </c>
       <c r="G24">
-        <v>893.39400000000001</v>
+        <v>707.822</v>
       </c>
       <c r="H24">
-        <v>1195.663</v>
+        <v>940.66399999999999</v>
       </c>
       <c r="I24">
-        <v>265.34899999999999</v>
+        <v>207.727</v>
       </c>
       <c r="J24">
-        <v>493.78300000000002</v>
+        <v>151.5</v>
       </c>
       <c r="K24">
-        <v>6.8230000000000004</v>
+        <v>150</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>387.16500000000002</v>
+        <v>461.87700000000001</v>
       </c>
       <c r="O24">
-        <v>927.06200000000001</v>
+        <v>629.69299999999998</v>
       </c>
       <c r="P24">
-        <v>507.77499999999998</v>
+        <v>304.35000000000002</v>
       </c>
       <c r="Q24">
-        <v>20.585999999999999</v>
+        <v>26.542999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>268.601</v>
+        <v>310.971</v>
       </c>
       <c r="U24">
-        <v>30.550999999999998</v>
+        <v>32.506999999999998</v>
       </c>
       <c r="V24">
-        <v>25.995999999999999</v>
+        <v>11.454000000000001</v>
       </c>
       <c r="W24">
-        <v>-13.03</v>
+        <v>-5.54</v>
       </c>
       <c r="X24">
-        <v>23.556000000000001</v>
+        <v>18.827000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>85.435000000000002</v>
+        <v>62.11</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>44.533999999999999</v>
+        <v>31.492999999999999</v>
       </c>
       <c r="D25">
-        <v>691.42899999999997</v>
+        <v>537.01700000000005</v>
       </c>
       <c r="E25">
-        <v>81.072000000000003</v>
+        <v>211.589</v>
       </c>
       <c r="F25">
-        <v>199.55099999999999</v>
+        <v>149.995</v>
       </c>
       <c r="G25">
-        <v>736.22500000000002</v>
+        <v>548.202</v>
       </c>
       <c r="H25">
-        <v>1037.521</v>
+        <v>802.73500000000001</v>
       </c>
       <c r="I25">
-        <v>199.922</v>
+        <v>111.349</v>
       </c>
       <c r="J25">
-        <v>388.89100000000002</v>
+        <v>144.75</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>110.974</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>327.87400000000002</v>
+        <v>344.94600000000003</v>
       </c>
       <c r="O25">
-        <v>763.06899999999996</v>
+        <v>504.08100000000002</v>
       </c>
       <c r="P25">
-        <v>396.363</v>
+        <v>259.45499999999998</v>
       </c>
       <c r="Q25">
-        <v>-0.25900000000000001</v>
+        <v>8.3670000000000009</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>274.452</v>
+        <v>298.654</v>
       </c>
       <c r="U25">
-        <v>30.292000000000002</v>
+        <v>40.874000000000002</v>
       </c>
       <c r="V25">
-        <v>156.92699999999999</v>
+        <v>130.68299999999999</v>
       </c>
       <c r="W25">
-        <v>-13.05</v>
+        <v>-5.444</v>
       </c>
       <c r="X25">
-        <v>-152.36799999999999</v>
+        <v>-94.024000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>44.533999999999999</v>
+        <v>31.492999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2.6150000000000002</v>
+        <v>-5.0010000000000003</v>
       </c>
       <c r="D26">
-        <v>445.23500000000001</v>
+        <v>318.48599999999999</v>
       </c>
       <c r="E26">
-        <v>14.483000000000001</v>
+        <v>117.881</v>
       </c>
       <c r="F26">
-        <v>127.777</v>
+        <v>82.905000000000001</v>
       </c>
       <c r="G26">
-        <v>695.55700000000002</v>
+        <v>519.42100000000005</v>
       </c>
       <c r="H26">
-        <v>994.09500000000003</v>
+        <v>774.56200000000001</v>
       </c>
       <c r="I26">
-        <v>230.72800000000001</v>
+        <v>177.54400000000001</v>
       </c>
       <c r="J26">
-        <v>436.93700000000001</v>
+        <v>188.15700000000001</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>74.286000000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>296.22000000000003</v>
+        <v>291.79000000000002</v>
       </c>
       <c r="O26">
-        <v>786.59799999999996</v>
+        <v>496.87799999999999</v>
       </c>
       <c r="P26">
-        <v>438.04199999999997</v>
+        <v>265.44299999999998</v>
       </c>
       <c r="Q26">
-        <v>-8.3360000000000003</v>
+        <v>-24.14</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="T26">
-        <v>207.49700000000001</v>
+        <v>277.68400000000003</v>
       </c>
       <c r="U26">
-        <v>21.956</v>
+        <v>16.734000000000002</v>
       </c>
       <c r="V26">
-        <v>22.207999999999998</v>
+        <v>-12.468</v>
       </c>
       <c r="W26">
-        <v>-12.742000000000001</v>
+        <v>-5.3460000000000001</v>
       </c>
       <c r="X26">
-        <v>-23.975000000000001</v>
+        <v>-10.646000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>2.6150000000000002</v>
+        <v>-5.0010000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>22.280999999999999</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="D27">
-        <v>546.44100000000003</v>
+        <v>373.70600000000002</v>
       </c>
       <c r="E27">
-        <v>61.264000000000003</v>
+        <v>231.03399999999999</v>
       </c>
       <c r="F27">
-        <v>153.62100000000001</v>
+        <v>103.485</v>
       </c>
       <c r="G27">
-        <v>967.05200000000002</v>
+        <v>691.80899999999997</v>
       </c>
       <c r="H27">
-        <v>1280.8689999999999</v>
+        <v>947.62900000000002</v>
       </c>
       <c r="I27">
-        <v>465.928</v>
+        <v>325.44799999999998</v>
       </c>
       <c r="J27">
-        <v>480.44200000000001</v>
+        <v>253.22200000000001</v>
       </c>
       <c r="K27">
-        <v>9.4039999999999999</v>
+        <v>102.3</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-227.59</v>
+        <v>-134.69499999999999</v>
       </c>
       <c r="N27">
-        <v>524.68499999999995</v>
+        <v>456.613</v>
       </c>
       <c r="O27">
-        <v>1055.7909999999999</v>
+        <v>729.34100000000001</v>
       </c>
       <c r="P27">
-        <v>492.541</v>
+        <v>359.87200000000001</v>
       </c>
       <c r="Q27">
-        <v>-8.5470000000000006</v>
+        <v>13.821</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>225.078</v>
+        <v>218.28800000000001</v>
       </c>
       <c r="U27">
-        <v>13.409000000000001</v>
+        <v>30.555</v>
       </c>
       <c r="V27">
-        <v>-32.423999999999999</v>
+        <v>-13.307</v>
       </c>
       <c r="W27">
-        <v>-12.798999999999999</v>
+        <v>-5.2480000000000002</v>
       </c>
       <c r="X27">
-        <v>42.466000000000001</v>
+        <v>31.141999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>2E-3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AA27">
-        <v>22.280999999999999</v>
+        <v>1.3540000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>94.903999999999996</v>
+        <v>57.793999999999997</v>
       </c>
       <c r="D28">
-        <v>988.16300000000001</v>
+        <v>726.47199999999998</v>
       </c>
       <c r="E28">
-        <v>112.80200000000001</v>
+        <v>301.26499999999999</v>
       </c>
       <c r="F28">
-        <v>289.66399999999999</v>
+        <v>207.922</v>
       </c>
       <c r="G28">
-        <v>955.27</v>
+        <v>755.18100000000004</v>
       </c>
       <c r="H28">
-        <v>1279.136</v>
+        <v>1014.822</v>
       </c>
       <c r="I28">
-        <v>273.30900000000003</v>
+        <v>229.691</v>
       </c>
       <c r="J28">
-        <v>538.57899999999995</v>
+        <v>272.59899999999999</v>
       </c>
       <c r="K28">
-        <v>8.4450000000000003</v>
+        <v>150</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>386.435</v>
+        <v>446.11200000000002</v>
       </c>
       <c r="O28">
-        <v>975.87699999999995</v>
+        <v>740.44200000000001</v>
       </c>
       <c r="P28">
-        <v>555.69200000000001</v>
+        <v>426.94900000000001</v>
       </c>
       <c r="Q28">
-        <v>13.257</v>
+        <v>16.616</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>303.25900000000001</v>
+        <v>274.38</v>
       </c>
       <c r="U28">
-        <v>26.666</v>
+        <v>47.170999999999999</v>
       </c>
       <c r="V28">
-        <v>-8.9209999999999994</v>
+        <v>-40.768000000000001</v>
       </c>
       <c r="W28">
-        <v>-15.308999999999999</v>
+        <v>-5.9370000000000003</v>
       </c>
       <c r="X28">
-        <v>40.651000000000003</v>
+        <v>60.942999999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>94.903000000000006</v>
+        <v>57.793999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>48.783000000000001</v>
+        <v>21.835000000000001</v>
       </c>
       <c r="D29">
-        <v>743.40099999999995</v>
+        <v>527.43399999999997</v>
       </c>
       <c r="E29">
-        <v>90.141999999999996</v>
+        <v>200.53399999999999</v>
       </c>
       <c r="F29">
-        <v>216.60599999999999</v>
+        <v>139.803</v>
       </c>
       <c r="G29">
-        <v>798.31299999999999</v>
+        <v>584.56500000000005</v>
       </c>
       <c r="H29">
-        <v>1121.924</v>
+        <v>844.423</v>
       </c>
       <c r="I29">
-        <v>209.06200000000001</v>
+        <v>127.889</v>
       </c>
       <c r="J29">
-        <v>555.96400000000006</v>
+        <v>292.75</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>110.715</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>305.55799999999999</v>
+        <v>295.51100000000002</v>
       </c>
       <c r="O29">
-        <v>911.38</v>
+        <v>609.59799999999996</v>
       </c>
       <c r="P29">
-        <v>566.36400000000003</v>
+        <v>406.815</v>
       </c>
       <c r="Q29">
-        <v>9.7319999999999993</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>210.54400000000001</v>
+        <v>234.82499999999999</v>
       </c>
       <c r="U29">
-        <v>36.398000000000003</v>
+        <v>50.265000000000001</v>
       </c>
       <c r="V29">
-        <v>153.36500000000001</v>
+        <v>87.59</v>
       </c>
       <c r="W29">
-        <v>-15.057</v>
+        <v>-5.8479999999999999</v>
       </c>
       <c r="X29">
-        <v>-135.863</v>
+        <v>-83.097999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>48.783000000000001</v>
+        <v>21.835000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>25.664999999999999</v>
+        <v>-11.589</v>
       </c>
       <c r="D30">
-        <v>510.18299999999999</v>
+        <v>300.755</v>
       </c>
       <c r="E30">
-        <v>22.783999999999999</v>
+        <v>107.203</v>
       </c>
       <c r="F30">
-        <v>145.398</v>
+        <v>79.436000000000007</v>
       </c>
       <c r="G30">
-        <v>782.24800000000005</v>
+        <v>554.00900000000001</v>
       </c>
       <c r="H30">
-        <v>1101.0619999999999</v>
+        <v>814.85400000000004</v>
       </c>
       <c r="I30">
-        <v>245.249</v>
+        <v>194.178</v>
       </c>
       <c r="J30">
-        <v>508.815</v>
+        <v>279.52499999999998</v>
       </c>
       <c r="K30">
-        <v>1.9370000000000001</v>
+        <v>68.326999999999998</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>321.56599999999997</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="O30">
-        <v>877.91600000000005</v>
+        <v>606.06299999999999</v>
       </c>
       <c r="P30">
-        <v>520.35299999999995</v>
+        <v>350.85199999999998</v>
       </c>
       <c r="Q30">
-        <v>-6.4580000000000002</v>
+        <v>-34.44</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="T30">
-        <v>223.14599999999999</v>
+        <v>208.791</v>
       </c>
       <c r="U30">
-        <v>29.94</v>
+        <v>15.824999999999999</v>
       </c>
       <c r="V30">
-        <v>63.290999999999997</v>
+        <v>38.128999999999998</v>
       </c>
       <c r="W30">
-        <v>-14.864000000000001</v>
+        <v>-5.7009999999999996</v>
       </c>
       <c r="X30">
-        <v>-61.703000000000003</v>
+        <v>-72.944000000000003</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>25.664999999999999</v>
+        <v>-11.589</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>31.338999999999999</v>
+        <v>-3.1840000000000002</v>
       </c>
       <c r="D31">
-        <v>585.9</v>
+        <v>338.21499999999997</v>
       </c>
       <c r="E31">
-        <v>75.888999999999996</v>
+        <v>206.18700000000001</v>
       </c>
       <c r="F31">
-        <v>166.07300000000001</v>
+        <v>95.353999999999999</v>
       </c>
       <c r="G31">
-        <v>1050.9059999999999</v>
+        <v>708.80100000000004</v>
       </c>
       <c r="H31">
-        <v>1379.6659999999999</v>
+        <v>982.94600000000003</v>
       </c>
       <c r="I31">
-        <v>467.79500000000002</v>
+        <v>333.10399999999998</v>
       </c>
       <c r="J31">
-        <v>547.32399999999996</v>
+        <v>326.298</v>
       </c>
       <c r="K31">
-        <v>12.263</v>
+        <v>66.811999999999998</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-190.86</v>
+        <v>-42.631</v>
       </c>
       <c r="N31">
-        <v>534.08500000000004</v>
+        <v>433.77199999999999</v>
       </c>
       <c r="O31">
-        <v>1129.8810000000001</v>
+        <v>781.596</v>
       </c>
       <c r="P31">
-        <v>568.11</v>
+        <v>396.262</v>
       </c>
       <c r="Q31">
-        <v>-21.137</v>
+        <v>-9.3490000000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>249.785</v>
+        <v>201.35</v>
       </c>
       <c r="U31">
-        <v>8.8030000000000008</v>
+        <v>6.476</v>
       </c>
       <c r="V31">
-        <v>-44.149000000000001</v>
+        <v>-15.44</v>
       </c>
       <c r="W31">
-        <v>-15.010999999999999</v>
+        <v>-5.734</v>
       </c>
       <c r="X31">
-        <v>38.204999999999998</v>
+        <v>41.353999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>31.338999999999999</v>
+        <v>-3.1840000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>117.04900000000001</v>
+        <v>52.875</v>
       </c>
       <c r="D32">
-        <v>1057.8040000000001</v>
+        <v>692.97199999999998</v>
       </c>
       <c r="E32">
-        <v>135.10400000000001</v>
+        <v>278.654</v>
       </c>
       <c r="F32">
-        <v>308.65499999999997</v>
+        <v>202.75200000000001</v>
       </c>
       <c r="G32">
-        <v>1070.3340000000001</v>
+        <v>710.88</v>
       </c>
       <c r="H32">
-        <v>1404.2809999999999</v>
+        <v>985.05499999999995</v>
       </c>
       <c r="I32">
-        <v>300.23200000000003</v>
+        <v>193.66300000000001</v>
       </c>
       <c r="J32">
-        <v>635.65800000000002</v>
+        <v>316</v>
       </c>
       <c r="K32">
-        <v>14.058999999999999</v>
+        <v>121.492</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>404.96499999999997</v>
+        <v>390.54300000000001</v>
       </c>
       <c r="O32">
-        <v>1090.48</v>
+        <v>730.52499999999998</v>
       </c>
       <c r="P32">
-        <v>657.12</v>
+        <v>442.125</v>
       </c>
       <c r="Q32">
-        <v>33.363999999999997</v>
+        <v>19.977</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>313.80099999999999</v>
+        <v>254.53</v>
       </c>
       <c r="U32">
-        <v>42.167000000000002</v>
+        <v>26.452999999999999</v>
       </c>
       <c r="V32">
-        <v>7.34</v>
+        <v>-19.722000000000001</v>
       </c>
       <c r="W32">
-        <v>-18.183</v>
+        <v>-6.2169999999999996</v>
       </c>
       <c r="X32">
-        <v>35.923999999999999</v>
+        <v>40.149000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>117.04900000000001</v>
+        <v>52.875</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>69.260999999999996</v>
+        <v>22.06</v>
       </c>
       <c r="D33">
-        <v>811.31100000000004</v>
+        <v>493.53</v>
       </c>
       <c r="E33">
-        <v>90.775000000000006</v>
+        <v>178.92699999999999</v>
       </c>
       <c r="F33">
-        <v>235.00299999999999</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="G33">
-        <v>952.90599999999995</v>
+        <v>567.20299999999997</v>
       </c>
       <c r="H33">
-        <v>1283.758</v>
+        <v>841.88400000000001</v>
       </c>
       <c r="I33">
-        <v>204.70599999999999</v>
+        <v>128.32900000000001</v>
       </c>
       <c r="J33">
-        <v>571.36</v>
+        <v>274.10000000000002</v>
       </c>
       <c r="K33">
-        <v>0.32100000000000001</v>
+        <v>58.392000000000003</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>289.68799999999999</v>
+        <v>272.726</v>
       </c>
       <c r="O33">
-        <v>911.02</v>
+        <v>571.65899999999999</v>
       </c>
       <c r="P33">
-        <v>580.70299999999997</v>
+        <v>337.86099999999999</v>
       </c>
       <c r="Q33">
-        <v>-6.4740000000000002</v>
+        <v>-1.175</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>372.738</v>
+        <v>270.22500000000002</v>
       </c>
       <c r="U33">
-        <v>35.692999999999998</v>
+        <v>25.277999999999999</v>
       </c>
       <c r="V33">
-        <v>88.069000000000003</v>
+        <v>111.697</v>
       </c>
       <c r="W33">
-        <v>-18.177</v>
+        <v>-6.2359999999999998</v>
       </c>
       <c r="X33">
-        <v>-91.468000000000004</v>
+        <v>-110.264</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>69.260999999999996</v>
+        <v>22.06</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>16.812000000000001</v>
+        <v>-14.795</v>
       </c>
       <c r="D34">
-        <v>543.08199999999999</v>
+        <v>258.96600000000001</v>
       </c>
       <c r="E34">
-        <v>10.269</v>
+        <v>91.039000000000001</v>
       </c>
       <c r="F34">
-        <v>160.441</v>
+        <v>75.322000000000003</v>
       </c>
       <c r="G34">
-        <v>915.24400000000003</v>
+        <v>556.84400000000005</v>
       </c>
       <c r="H34">
-        <v>1240.8710000000001</v>
+        <v>830.90599999999995</v>
       </c>
       <c r="I34">
-        <v>237.83500000000001</v>
+        <v>173.68799999999999</v>
       </c>
       <c r="J34">
-        <v>657.59299999999996</v>
+        <v>301</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>20.792000000000002</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>305.61</v>
+        <v>262.29199999999997</v>
       </c>
       <c r="O34">
-        <v>1017.2809999999999</v>
+        <v>589.17200000000003</v>
       </c>
       <c r="P34">
-        <v>666.76099999999997</v>
+        <v>327.79199999999997</v>
       </c>
       <c r="Q34">
-        <v>-19.335000000000001</v>
+        <v>-9.516</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="T34">
-        <v>223.59</v>
+        <v>241.73400000000001</v>
       </c>
       <c r="U34">
-        <v>16.358000000000001</v>
+        <v>15.762</v>
       </c>
       <c r="V34">
-        <v>67.396000000000001</v>
+        <v>16.747</v>
       </c>
       <c r="W34">
-        <v>-18.059000000000001</v>
+        <v>-6.2439999999999998</v>
       </c>
       <c r="X34">
-        <v>-80.231999999999999</v>
+        <v>-15.965</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,125 +3587,125 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>16.812000000000001</v>
+        <v>-14.795</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>32.637</v>
+        <v>-6.2359999999999998</v>
       </c>
       <c r="D35">
-        <v>597.45600000000002</v>
+        <v>276.62599999999998</v>
       </c>
       <c r="E35">
-        <v>72.352000000000004</v>
+        <v>160.31800000000001</v>
       </c>
       <c r="F35">
-        <v>174.631</v>
+        <v>81.192999999999998</v>
       </c>
       <c r="G35">
-        <v>1173.566</v>
+        <v>591.16499999999996</v>
       </c>
       <c r="H35">
-        <v>1678.35</v>
+        <v>863.77499999999998</v>
       </c>
       <c r="I35">
-        <v>472.48700000000002</v>
+        <v>201.3</v>
       </c>
       <c r="J35">
-        <v>677.24300000000005</v>
+        <v>356.721</v>
       </c>
       <c r="K35">
-        <v>13.714</v>
+        <v>8</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-267.89699999999999</v>
+        <v>-46.728000000000002</v>
       </c>
       <c r="N35">
-        <v>597.62300000000005</v>
+        <v>250.82400000000001</v>
       </c>
       <c r="O35">
-        <v>1453.473</v>
+        <v>632.29499999999996</v>
       </c>
       <c r="P35">
-        <v>877.49099999999999</v>
+        <v>381.334</v>
       </c>
       <c r="Q35">
-        <v>12.223000000000001</v>
+        <v>-2.6589999999999998</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>224.87700000000001</v>
+        <v>231.48</v>
       </c>
       <c r="U35">
-        <v>28.581</v>
+        <v>13.103</v>
       </c>
       <c r="V35">
-        <v>28.803999999999998</v>
+        <v>-45.966999999999999</v>
       </c>
       <c r="W35">
-        <v>-17.818999999999999</v>
+        <v>-6.2789999999999999</v>
       </c>
       <c r="X35">
-        <v>-2.0499999999999998</v>
+        <v>48.142000000000003</v>
       </c>
       <c r="Y35">
-        <v>122.77</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>32.637</v>
+        <v>-6.2359999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>131.38999999999999</v>
+        <v>48.366</v>
       </c>
       <c r="D36">
-        <v>1121.328</v>
+        <v>602.08199999999999</v>
       </c>
       <c r="E36">
-        <v>127.26</v>
+        <v>233.28800000000001</v>
       </c>
       <c r="F36">
-        <v>330.31400000000002</v>
+        <v>178.06800000000001</v>
       </c>
       <c r="G36">
-        <v>1183.1890000000001</v>
+        <v>620.34</v>
       </c>
       <c r="H36">
-        <v>1690.5820000000001</v>
+        <v>894.899</v>
       </c>
       <c r="I36">
-        <v>342.33499999999998</v>
+        <v>194.00399999999999</v>
       </c>
       <c r="J36">
-        <v>668.36300000000006</v>
+        <v>282.01499999999999</v>
       </c>
       <c r="K36">
-        <v>15.836</v>
+        <v>25</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>503.62700000000001</v>
+        <v>307.47300000000001</v>
       </c>
       <c r="O36">
-        <v>1347.413</v>
+        <v>615.71199999999999</v>
       </c>
       <c r="P36">
-        <v>868.28899999999999</v>
+        <v>334.12900000000002</v>
       </c>
       <c r="Q36">
-        <v>32.113</v>
+        <v>28.623999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>343.16899999999998</v>
+        <v>279.18700000000001</v>
       </c>
       <c r="U36">
-        <v>60.694000000000003</v>
+        <v>41.726999999999997</v>
       </c>
       <c r="V36">
-        <v>68.637</v>
+        <v>81.578000000000003</v>
       </c>
       <c r="W36">
-        <v>-21.934000000000001</v>
+        <v>-6.3220000000000001</v>
       </c>
       <c r="X36">
-        <v>-23.148</v>
+        <v>-52.954000000000001</v>
       </c>
       <c r="Y36">
-        <v>119.38</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>131.38999999999999</v>
+        <v>48.366</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>79.524000000000001</v>
+        <v>-9.3219999999999992</v>
       </c>
       <c r="D37">
-        <v>898.5</v>
+        <v>430.05399999999997</v>
       </c>
       <c r="E37">
-        <v>95.971000000000004</v>
+        <v>149.733</v>
       </c>
       <c r="F37">
-        <v>257.93099999999998</v>
+        <v>123.39400000000001</v>
       </c>
       <c r="G37">
-        <v>973.09199999999998</v>
+        <v>516.87800000000004</v>
       </c>
       <c r="H37">
-        <v>1481.4079999999999</v>
+        <v>760.95899999999995</v>
       </c>
       <c r="I37">
-        <v>214.309</v>
+        <v>137.761</v>
       </c>
       <c r="J37">
-        <v>535.72</v>
+        <v>235.8</v>
       </c>
       <c r="K37">
-        <v>2.1160000000000001</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>363.63299999999998</v>
+        <v>229.446</v>
       </c>
       <c r="O37">
-        <v>1075.4380000000001</v>
+        <v>491.15100000000001</v>
       </c>
       <c r="P37">
-        <v>726.51400000000001</v>
+        <v>279.5</v>
       </c>
       <c r="Q37">
-        <v>-24.001000000000001</v>
+        <v>-11.285</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>405.97</v>
+        <v>269.80799999999999</v>
       </c>
       <c r="U37">
-        <v>36.692999999999998</v>
+        <v>30.442</v>
       </c>
       <c r="V37">
-        <v>145.81200000000001</v>
+        <v>51.463999999999999</v>
       </c>
       <c r="W37">
-        <v>-21.998999999999999</v>
+        <v>-6.3440000000000003</v>
       </c>
       <c r="X37">
-        <v>-162.536</v>
+        <v>-64.099000000000004</v>
       </c>
       <c r="Y37">
-        <v>121.39700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>79.525000000000006</v>
+        <v>-9.3219999999999992</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>18.024000000000001</v>
+        <v>-13.606</v>
       </c>
       <c r="D38">
-        <v>582.23400000000004</v>
+        <v>231.03200000000001</v>
       </c>
       <c r="E38">
-        <v>12.983000000000001</v>
+        <v>73.275999999999996</v>
       </c>
       <c r="F38">
-        <v>162.05000000000001</v>
+        <v>67.069000000000003</v>
       </c>
       <c r="G38">
-        <v>973.56799999999998</v>
+        <v>491.31700000000001</v>
       </c>
       <c r="H38">
-        <v>1483.2660000000001</v>
+        <v>743.09900000000005</v>
       </c>
       <c r="I38">
-        <v>261.96300000000002</v>
+        <v>178.39099999999999</v>
       </c>
       <c r="J38">
-        <v>499.66199999999998</v>
+        <v>200.7</v>
       </c>
       <c r="K38">
-        <v>1.647</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>390.846</v>
+        <v>260.51299999999998</v>
       </c>
       <c r="O38">
-        <v>1073.086</v>
+        <v>490.91199999999998</v>
       </c>
       <c r="P38">
-        <v>690.66099999999994</v>
+        <v>248.7</v>
       </c>
       <c r="Q38">
-        <v>-8.11</v>
+        <v>-14.599</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="T38">
-        <v>410.18</v>
+        <v>252.18700000000001</v>
       </c>
       <c r="U38">
-        <v>28.582999999999998</v>
+        <v>15.843</v>
       </c>
       <c r="V38">
-        <v>55.523000000000003</v>
+        <v>26.175000000000001</v>
       </c>
       <c r="W38">
-        <v>-22.02</v>
+        <v>-6.3650000000000002</v>
       </c>
       <c r="X38">
-        <v>-56.752000000000002</v>
+        <v>-30.433</v>
       </c>
       <c r="Y38">
-        <v>122.01</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>18.024000000000001</v>
+        <v>-13.606</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>30.911999999999999</v>
+        <v>-6.1109999999999998</v>
       </c>
       <c r="D39">
-        <v>677.28800000000001</v>
+        <v>269.83300000000003</v>
       </c>
       <c r="E39">
-        <v>66.328000000000003</v>
+        <v>157.56800000000001</v>
       </c>
       <c r="F39">
-        <v>189.62899999999999</v>
+        <v>76.292000000000002</v>
       </c>
       <c r="G39">
-        <v>1238.3779999999999</v>
+        <v>575.63599999999997</v>
       </c>
       <c r="H39">
-        <v>1747.7809999999999</v>
+        <v>827.86199999999997</v>
       </c>
       <c r="I39">
-        <v>517.62</v>
+        <v>251.59</v>
       </c>
       <c r="J39">
-        <v>569.697</v>
+        <v>242.15</v>
       </c>
       <c r="K39">
-        <v>8.1259999999999994</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-278.02699999999999</v>
+        <v>-69.643000000000001</v>
       </c>
       <c r="N39">
-        <v>652.29</v>
+        <v>313.24200000000002</v>
       </c>
       <c r="O39">
-        <v>1399.383</v>
+        <v>585.01700000000005</v>
       </c>
       <c r="P39">
-        <v>762.21500000000003</v>
+        <v>283.21100000000001</v>
       </c>
       <c r="Q39">
-        <v>-10.775</v>
+        <v>-4.3490000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>348.39800000000002</v>
+        <v>242.845</v>
       </c>
       <c r="U39">
-        <v>17.808</v>
+        <v>11.494</v>
       </c>
       <c r="V39">
-        <v>19.728000000000002</v>
+        <v>-25.283999999999999</v>
       </c>
       <c r="W39">
-        <v>-22.146999999999998</v>
+        <v>-6.4180000000000001</v>
       </c>
       <c r="X39">
-        <v>-8.1489999999999991</v>
+        <v>24.459</v>
       </c>
       <c r="Y39">
-        <v>120.462</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>30.911999999999999</v>
+        <v>-6.1109999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>157.55500000000001</v>
+        <v>52.77</v>
       </c>
       <c r="D40">
-        <v>1280.846</v>
+        <v>647.46699999999998</v>
       </c>
       <c r="E40">
-        <v>144.84200000000001</v>
+        <v>238.63800000000001</v>
       </c>
       <c r="F40">
-        <v>373.48099999999999</v>
+        <v>190.53399999999999</v>
       </c>
       <c r="G40">
-        <v>1137.1469999999999</v>
+        <v>625.84199999999998</v>
       </c>
       <c r="H40">
-        <v>1654.797</v>
+        <v>879.87099999999998</v>
       </c>
       <c r="I40">
-        <v>346.27199999999999</v>
+        <v>221.374</v>
       </c>
       <c r="J40">
-        <v>429.24599999999998</v>
+        <v>242.131</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>552.11599999999999</v>
+        <v>316.41000000000003</v>
       </c>
       <c r="O40">
-        <v>1168.0060000000001</v>
+        <v>588.41999999999996</v>
       </c>
       <c r="P40">
-        <v>638.69899999999996</v>
+        <v>270.8</v>
       </c>
       <c r="Q40">
-        <v>26.376999999999999</v>
+        <v>25.491</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>486.791</v>
+        <v>291.45100000000002</v>
       </c>
       <c r="U40">
-        <v>44.185000000000002</v>
+        <v>36.984999999999999</v>
       </c>
       <c r="V40">
-        <v>201.47200000000001</v>
+        <v>53.999000000000002</v>
       </c>
       <c r="W40">
-        <v>-23.164999999999999</v>
+        <v>-6.44</v>
       </c>
       <c r="X40">
-        <v>-169.64500000000001</v>
+        <v>-20.437999999999999</v>
       </c>
       <c r="Y40">
-        <v>128.23699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>157.55500000000001</v>
+        <v>52.77</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>119.098</v>
+        <v>22.783999999999999</v>
       </c>
       <c r="D41">
-        <v>1139.229</v>
+        <v>455.02</v>
       </c>
       <c r="E41">
-        <v>135.55500000000001</v>
+        <v>155.25200000000001</v>
       </c>
       <c r="F41">
-        <v>328.69799999999998</v>
+        <v>130.869</v>
       </c>
       <c r="G41">
-        <v>1066.681</v>
+        <v>511.99900000000002</v>
       </c>
       <c r="H41">
-        <v>1587.5889999999999</v>
+        <v>765.04899999999998</v>
       </c>
       <c r="I41">
-        <v>268.41199999999998</v>
+        <v>127.995</v>
       </c>
       <c r="J41">
-        <v>328.22500000000002</v>
+        <v>219.2</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>482.51799999999997</v>
+        <v>206.40199999999999</v>
       </c>
       <c r="O41">
-        <v>998.08799999999997</v>
+        <v>454.78399999999999</v>
       </c>
       <c r="P41">
-        <v>536.76199999999994</v>
+        <v>235.56</v>
       </c>
       <c r="Q41">
-        <v>30.564</v>
+        <v>-4.4240000000000004</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>589.50099999999998</v>
+        <v>310.26499999999999</v>
       </c>
       <c r="U41">
-        <v>74.748999999999995</v>
+        <v>32.561</v>
       </c>
       <c r="V41">
-        <v>167.714</v>
+        <v>36.527000000000001</v>
       </c>
       <c r="W41">
-        <v>-23.286999999999999</v>
+        <v>-6.45</v>
       </c>
       <c r="X41">
-        <v>-122.367</v>
+        <v>-39.709000000000003</v>
       </c>
       <c r="Y41">
-        <v>125.023</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>119.098</v>
+        <v>22.783999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-11.805</v>
+      </c>
+      <c r="D42">
+        <v>241.42599999999999</v>
+      </c>
+      <c r="E42">
+        <v>73.602999999999994</v>
+      </c>
+      <c r="F42">
+        <v>73.566999999999993</v>
+      </c>
+      <c r="G42">
+        <v>476.59199999999998</v>
+      </c>
+      <c r="H42">
+        <v>728.54499999999996</v>
+      </c>
+      <c r="I42">
+        <v>169.7</v>
+      </c>
+      <c r="J42">
+        <v>198.7</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>211.53800000000001</v>
+      </c>
+      <c r="O42">
+        <v>443.363</v>
+      </c>
+      <c r="P42">
+        <v>202.04900000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-22.84</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>3200</v>
+      </c>
+      <c r="T42">
+        <v>285.18200000000002</v>
+      </c>
+      <c r="U42">
+        <v>9.7210000000000001</v>
+      </c>
+      <c r="V42">
+        <v>28.716999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-6.4379999999999997</v>
+      </c>
+      <c r="X42">
+        <v>-49.47</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>-11.805</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-0.63800000000000001</v>
+      </c>
+      <c r="D43">
+        <v>312.88900000000001</v>
+      </c>
+      <c r="E43">
+        <v>173.78700000000001</v>
+      </c>
+      <c r="F43">
+        <v>91.41</v>
+      </c>
+      <c r="G43">
+        <v>641.05899999999997</v>
+      </c>
+      <c r="H43">
+        <v>896.64300000000003</v>
+      </c>
+      <c r="I43">
+        <v>303.39499999999998</v>
+      </c>
+      <c r="J43">
+        <v>180.15700000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-85.888999999999996</v>
+      </c>
+      <c r="N43">
+        <v>432.55500000000001</v>
+      </c>
+      <c r="O43">
+        <v>646.07299999999998</v>
+      </c>
+      <c r="P43">
+        <v>182.80199999999999</v>
+      </c>
+      <c r="Q43">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>250.57</v>
+      </c>
+      <c r="U43">
+        <v>11.42</v>
+      </c>
+      <c r="V43">
+        <v>-37.128</v>
+      </c>
+      <c r="W43">
+        <v>-6.3209999999999997</v>
+      </c>
+      <c r="X43">
+        <v>45.011000000000003</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>-0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>58.576999999999998</v>
+      </c>
+      <c r="D44">
+        <v>706.423</v>
+      </c>
+      <c r="E44">
+        <v>266.03199999999998</v>
+      </c>
+      <c r="F44">
+        <v>211.43899999999999</v>
+      </c>
+      <c r="G44">
+        <v>710.91600000000005</v>
+      </c>
+      <c r="H44">
+        <v>970.55</v>
+      </c>
+      <c r="I44">
+        <v>247.904</v>
+      </c>
+      <c r="J44">
+        <v>206.04900000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>427.73099999999999</v>
+      </c>
+      <c r="O44">
+        <v>667.59400000000005</v>
+      </c>
+      <c r="P44">
+        <v>207.98</v>
+      </c>
+      <c r="Q44">
+        <v>25.797999999999998</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>302.95600000000002</v>
+      </c>
+      <c r="U44">
+        <v>37.218000000000004</v>
+      </c>
+      <c r="V44">
+        <v>18.189</v>
+      </c>
+      <c r="W44">
+        <v>-6.7530000000000001</v>
+      </c>
+      <c r="X44">
+        <v>14.760999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-0.113</v>
+      </c>
+      <c r="AA44">
+        <v>58.576999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>24.169</v>
+      </c>
+      <c r="D45">
+        <v>503.584</v>
+      </c>
+      <c r="E45">
+        <v>160.64699999999999</v>
+      </c>
+      <c r="F45">
+        <v>147.90600000000001</v>
+      </c>
+      <c r="G45">
+        <v>536.5</v>
+      </c>
+      <c r="H45">
+        <v>798.21199999999999</v>
+      </c>
+      <c r="I45">
+        <v>120.221</v>
+      </c>
+      <c r="J45">
+        <v>268.7</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>190.96100000000001</v>
+      </c>
+      <c r="O45">
+        <v>493.71300000000002</v>
+      </c>
+      <c r="P45">
+        <v>269.80399999999997</v>
+      </c>
+      <c r="Q45">
+        <v>-16.562000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>304.49900000000002</v>
+      </c>
+      <c r="U45">
+        <v>20.655999999999999</v>
+      </c>
+      <c r="V45">
+        <v>50.912999999999997</v>
+      </c>
+      <c r="W45">
+        <v>-6.7240000000000002</v>
+      </c>
+      <c r="X45">
+        <v>-61.322000000000003</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="AA45">
+        <v>24.169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-10.115</v>
+      </c>
+      <c r="D46">
+        <v>270.42200000000003</v>
+      </c>
+      <c r="E46">
+        <v>78.138999999999996</v>
+      </c>
+      <c r="F46">
+        <v>80.834999999999994</v>
+      </c>
+      <c r="G46">
+        <v>532.06600000000003</v>
+      </c>
+      <c r="H46">
+        <v>770.90200000000004</v>
+      </c>
+      <c r="I46">
+        <v>177.43700000000001</v>
+      </c>
+      <c r="J46">
+        <v>247.3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>226.59899999999999</v>
+      </c>
+      <c r="O46">
+        <v>491.15600000000001</v>
+      </c>
+      <c r="P46">
+        <v>247.72</v>
+      </c>
+      <c r="Q46">
+        <v>-3.169</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>3300</v>
+      </c>
+      <c r="T46">
+        <v>279.74599999999998</v>
+      </c>
+      <c r="U46">
+        <v>17.486999999999998</v>
+      </c>
+      <c r="V46">
+        <v>43.128999999999998</v>
+      </c>
+      <c r="W46">
+        <v>-6.6719999999999997</v>
+      </c>
+      <c r="X46">
+        <v>-39.003999999999998</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="AA46">
+        <v>-10.115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="D47">
+        <v>361.95400000000001</v>
+      </c>
+      <c r="E47">
+        <v>201.792</v>
+      </c>
+      <c r="F47">
+        <v>104.563</v>
+      </c>
+      <c r="G47">
+        <v>709.61</v>
+      </c>
+      <c r="H47">
+        <v>974.26499999999999</v>
+      </c>
+      <c r="I47">
+        <v>319.46199999999999</v>
+      </c>
+      <c r="J47">
+        <v>299.01100000000002</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-163.70500000000001</v>
+      </c>
+      <c r="N47">
+        <v>353.72500000000002</v>
+      </c>
+      <c r="O47">
+        <v>692.69899999999996</v>
+      </c>
+      <c r="P47">
+        <v>299.56200000000001</v>
+      </c>
+      <c r="Q47">
+        <v>3.194</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>281.56599999999997</v>
+      </c>
+      <c r="U47">
+        <v>20.681000000000001</v>
+      </c>
+      <c r="V47">
+        <v>-34.027000000000001</v>
+      </c>
+      <c r="W47">
+        <v>-6.6680000000000001</v>
+      </c>
+      <c r="X47">
+        <v>47.984999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="AA47">
+        <v>3.6509999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>64.942999999999998</v>
+      </c>
+      <c r="D48">
+        <v>757.17499999999995</v>
+      </c>
+      <c r="E48">
+        <v>270.089</v>
+      </c>
+      <c r="F48">
+        <v>222.405</v>
+      </c>
+      <c r="G48">
+        <v>742.84</v>
+      </c>
+      <c r="H48">
+        <v>1007.014</v>
+      </c>
+      <c r="I48">
+        <v>267.99</v>
+      </c>
+      <c r="J48">
+        <v>309.81299999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>355.62599999999998</v>
+      </c>
+      <c r="O48">
+        <v>704.63599999999997</v>
+      </c>
+      <c r="P48">
+        <v>312.42099999999999</v>
+      </c>
+      <c r="Q48">
+        <v>29.63</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>302.37799999999999</v>
+      </c>
+      <c r="U48">
+        <v>50.311</v>
+      </c>
+      <c r="V48">
+        <v>67.548000000000002</v>
+      </c>
+      <c r="W48">
+        <v>-7.5549999999999997</v>
+      </c>
+      <c r="X48">
+        <v>-34.085000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-0.113</v>
+      </c>
+      <c r="AA48">
+        <v>64.942999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>21.375</v>
+      </c>
+      <c r="D49">
+        <v>528.02700000000004</v>
+      </c>
+      <c r="E49">
+        <v>175.459</v>
+      </c>
+      <c r="F49">
+        <v>151.501</v>
+      </c>
+      <c r="G49">
+        <v>573.24099999999999</v>
+      </c>
+      <c r="H49">
+        <v>831.38300000000004</v>
+      </c>
+      <c r="I49">
+        <v>163.54300000000001</v>
+      </c>
+      <c r="J49">
+        <v>214.328</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>266.37099999999998</v>
+      </c>
+      <c r="O49">
+        <v>518.91300000000001</v>
+      </c>
+      <c r="P49">
+        <v>217.97800000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-21.492999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>312.47000000000003</v>
+      </c>
+      <c r="U49">
+        <v>28.818000000000001</v>
+      </c>
+      <c r="V49">
+        <v>91.009</v>
+      </c>
+      <c r="W49">
+        <v>-7.4459999999999997</v>
+      </c>
+      <c r="X49">
+        <v>-107.932</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="AA49">
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-7.9969999999999999</v>
+      </c>
+      <c r="D50">
+        <v>306.81799999999998</v>
+      </c>
+      <c r="E50">
+        <v>80.7</v>
+      </c>
+      <c r="F50">
+        <v>88.938000000000002</v>
+      </c>
+      <c r="G50">
+        <v>543.096</v>
+      </c>
+      <c r="H50">
+        <v>780.57600000000002</v>
+      </c>
+      <c r="I50">
+        <v>199.78700000000001</v>
+      </c>
+      <c r="J50">
+        <v>230.88200000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>247.99600000000001</v>
+      </c>
+      <c r="O50">
+        <v>498.95299999999997</v>
+      </c>
+      <c r="P50">
+        <v>230.88200000000001</v>
+      </c>
+      <c r="Q50">
+        <v>-16.355</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3400</v>
+      </c>
+      <c r="T50">
+        <v>281.62299999999999</v>
+      </c>
+      <c r="U50">
+        <v>12.462999999999999</v>
+      </c>
+      <c r="V50">
+        <v>-5.452</v>
+      </c>
+      <c r="W50">
+        <v>-7.4660000000000002</v>
+      </c>
+      <c r="X50">
+        <v>-8.6120000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA50">
+        <v>-7.9969999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>3.44</v>
+      </c>
+      <c r="D51">
+        <v>370.36200000000002</v>
+      </c>
+      <c r="E51">
+        <v>188.29400000000001</v>
+      </c>
+      <c r="F51">
+        <v>104.761</v>
+      </c>
+      <c r="G51">
+        <v>713.67</v>
+      </c>
+      <c r="H51">
+        <v>953.74</v>
+      </c>
+      <c r="I51">
+        <v>338.02600000000001</v>
+      </c>
+      <c r="J51">
+        <v>278.54199999999997</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-102.105</v>
+      </c>
+      <c r="N51">
+        <v>368.46</v>
+      </c>
+      <c r="O51">
+        <v>668.75800000000004</v>
+      </c>
+      <c r="P51">
+        <v>281.60300000000001</v>
+      </c>
+      <c r="Q51">
+        <v>0.41</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>284.98200000000003</v>
+      </c>
+      <c r="U51">
+        <v>12.872999999999999</v>
+      </c>
+      <c r="V51">
+        <v>-39.985999999999997</v>
+      </c>
+      <c r="W51">
+        <v>-7.4340000000000002</v>
+      </c>
+      <c r="X51">
+        <v>44.533000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AA51">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>66.533000000000001</v>
+      </c>
+      <c r="D52">
+        <v>790.39200000000005</v>
+      </c>
+      <c r="E52">
+        <v>281.06400000000002</v>
+      </c>
+      <c r="F52">
+        <v>228.166</v>
+      </c>
+      <c r="G52">
+        <v>748.00099999999998</v>
+      </c>
+      <c r="H52">
+        <v>990.00900000000001</v>
+      </c>
+      <c r="I52">
+        <v>239.976</v>
+      </c>
+      <c r="J52">
+        <v>300.42599999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>319.83999999999997</v>
+      </c>
+      <c r="O52">
+        <v>643.4</v>
+      </c>
+      <c r="P52">
+        <v>301.85700000000003</v>
+      </c>
+      <c r="Q52">
+        <v>14.063000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>346.60899999999998</v>
+      </c>
+      <c r="U52">
+        <v>26.936</v>
+      </c>
+      <c r="V52">
+        <v>7.008</v>
+      </c>
+      <c r="W52">
+        <v>-8.8740000000000006</v>
+      </c>
+      <c r="X52">
+        <v>14.932</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0.02</v>
+      </c>
+      <c r="AA52">
+        <v>66.533000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>32.332000000000001</v>
+      </c>
+      <c r="D53">
+        <v>578.15700000000004</v>
+      </c>
+      <c r="E53">
+        <v>180.898</v>
+      </c>
+      <c r="F53">
+        <v>162.55699999999999</v>
+      </c>
+      <c r="G53">
+        <v>583.93200000000002</v>
+      </c>
+      <c r="H53">
+        <v>826.87400000000002</v>
+      </c>
+      <c r="I53">
+        <v>142.77699999999999</v>
+      </c>
+      <c r="J53">
+        <v>260.43200000000002</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>207.529</v>
+      </c>
+      <c r="O53">
+        <v>491.04300000000001</v>
+      </c>
+      <c r="P53">
+        <v>262.34100000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-2.714</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>335.83100000000002</v>
+      </c>
+      <c r="U53">
+        <v>24.222000000000001</v>
+      </c>
+      <c r="V53">
+        <v>86.823999999999998</v>
+      </c>
+      <c r="W53">
+        <v>-8.8119999999999994</v>
+      </c>
+      <c r="X53">
+        <v>-85.418999999999997</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AA53">
+        <v>32.332000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-4.9749999999999996</v>
+      </c>
+      <c r="D54">
+        <v>340.78899999999999</v>
+      </c>
+      <c r="E54">
+        <v>9.6029999999999998</v>
+      </c>
+      <c r="F54">
+        <v>95.793000000000006</v>
+      </c>
+      <c r="G54">
+        <v>577.74900000000002</v>
+      </c>
+      <c r="H54">
+        <v>823.76099999999997</v>
+      </c>
+      <c r="I54">
+        <v>214.596</v>
+      </c>
+      <c r="J54">
+        <v>246.41800000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>263.90600000000001</v>
+      </c>
+      <c r="O54">
+        <v>537.57899999999995</v>
+      </c>
+      <c r="P54">
+        <v>246.41800000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-16.216000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3600</v>
+      </c>
+      <c r="T54">
+        <v>286.18200000000002</v>
+      </c>
+      <c r="U54">
+        <v>8.0060000000000002</v>
+      </c>
+      <c r="V54">
+        <v>51.241999999999997</v>
+      </c>
+      <c r="W54">
+        <v>-8.6880000000000006</v>
+      </c>
+      <c r="X54">
+        <v>-63.530999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AA54">
+        <v>-4.9749999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>4.1879999999999997</v>
+      </c>
+      <c r="D55">
+        <v>406.34399999999999</v>
+      </c>
+      <c r="E55">
+        <v>47.694000000000003</v>
+      </c>
+      <c r="F55">
+        <v>114.1</v>
+      </c>
+      <c r="G55">
+        <v>761.03899999999999</v>
+      </c>
+      <c r="H55">
+        <v>1013.2</v>
+      </c>
+      <c r="I55">
+        <v>370.00200000000001</v>
+      </c>
+      <c r="J55">
+        <v>324.226</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-173.749</v>
+      </c>
+      <c r="N55">
+        <v>398.07499999999999</v>
+      </c>
+      <c r="O55">
+        <v>751.52200000000005</v>
+      </c>
+      <c r="P55">
+        <v>325.74599999999998</v>
+      </c>
+      <c r="Q55">
+        <v>-0.749</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>261.678</v>
+      </c>
+      <c r="U55">
+        <v>7.2569999999999997</v>
+      </c>
+      <c r="V55">
+        <v>-37.344999999999999</v>
+      </c>
+      <c r="W55">
+        <v>-8.5690000000000008</v>
+      </c>
+      <c r="X55">
+        <v>47.789000000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AA55">
+        <v>4.1879999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>73.863</v>
+      </c>
+      <c r="D56">
+        <v>848.24</v>
+      </c>
+      <c r="E56">
+        <v>97.527000000000001</v>
+      </c>
+      <c r="F56">
+        <v>246.976</v>
+      </c>
+      <c r="G56">
+        <v>801.04100000000005</v>
+      </c>
+      <c r="H56">
+        <v>1055.4480000000001</v>
+      </c>
+      <c r="I56">
+        <v>233.54900000000001</v>
+      </c>
+      <c r="J56">
+        <v>430.971</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>322.74900000000002</v>
+      </c>
+      <c r="O56">
+        <v>784.13099999999997</v>
+      </c>
+      <c r="P56">
+        <v>433.05700000000002</v>
+      </c>
+      <c r="Q56">
+        <v>20.306000000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>271.31700000000001</v>
+      </c>
+      <c r="U56">
+        <v>27.562999999999999</v>
+      </c>
+      <c r="V56">
+        <v>-13.542999999999999</v>
+      </c>
+      <c r="W56">
+        <v>-9.8409999999999993</v>
+      </c>
+      <c r="X56">
+        <v>39.863999999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AA56">
+        <v>73.863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>34.835999999999999</v>
+      </c>
+      <c r="D57">
+        <v>615.53599999999994</v>
+      </c>
+      <c r="E57">
+        <v>69.846999999999994</v>
+      </c>
+      <c r="F57">
+        <v>176.244</v>
+      </c>
+      <c r="G57">
+        <v>651.89</v>
+      </c>
+      <c r="H57">
+        <v>909.23599999999999</v>
+      </c>
+      <c r="I57">
+        <v>154.511</v>
+      </c>
+      <c r="J57">
+        <v>391.12</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>232.351</v>
+      </c>
+      <c r="O57">
+        <v>653.43200000000002</v>
+      </c>
+      <c r="P57">
+        <v>394.97699999999998</v>
+      </c>
+      <c r="Q57">
+        <v>-13.108000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>255.804</v>
+      </c>
+      <c r="U57">
+        <v>14.455</v>
+      </c>
+      <c r="V57">
+        <v>88.108000000000004</v>
+      </c>
+      <c r="W57">
+        <v>-9.6649999999999991</v>
+      </c>
+      <c r="X57">
+        <v>-92.335999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AA57">
+        <v>34.835999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-2.1949999999999998</v>
+      </c>
+      <c r="D58">
+        <v>376.44200000000001</v>
+      </c>
+      <c r="E58">
+        <v>13.55</v>
+      </c>
+      <c r="F58">
+        <v>106.02</v>
+      </c>
+      <c r="G58">
+        <v>637.21299999999997</v>
+      </c>
+      <c r="H58">
+        <v>892.93700000000001</v>
+      </c>
+      <c r="I58">
+        <v>236.29400000000001</v>
+      </c>
+      <c r="J58">
+        <v>319.30900000000003</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>291.90800000000002</v>
+      </c>
+      <c r="O58">
+        <v>645.47199999999998</v>
+      </c>
+      <c r="P58">
+        <v>320.83800000000002</v>
+      </c>
+      <c r="Q58">
+        <v>0.375</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3700</v>
+      </c>
+      <c r="T58">
+        <v>247.465</v>
+      </c>
+      <c r="U58">
+        <v>14.83</v>
+      </c>
+      <c r="V58">
+        <v>84.594999999999999</v>
+      </c>
+      <c r="W58">
+        <v>-9.5250000000000004</v>
+      </c>
+      <c r="X58">
+        <v>-77.3</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AA58">
+        <v>-2.1949999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>8.4190000000000005</v>
+      </c>
+      <c r="D59">
+        <v>450.43</v>
+      </c>
+      <c r="E59">
+        <v>56.116999999999997</v>
+      </c>
+      <c r="F59">
+        <v>124.801</v>
+      </c>
+      <c r="G59">
+        <v>817.19200000000001</v>
+      </c>
+      <c r="H59">
+        <v>1084.414</v>
+      </c>
+      <c r="I59">
+        <v>375.995</v>
+      </c>
+      <c r="J59">
+        <v>394.55900000000003</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-206.666</v>
+      </c>
+      <c r="N59">
+        <v>408.18299999999999</v>
+      </c>
+      <c r="O59">
+        <v>840.01400000000001</v>
+      </c>
+      <c r="P59">
+        <v>398.28699999999998</v>
+      </c>
+      <c r="Q59">
+        <v>-9.782</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>244.4</v>
+      </c>
+      <c r="U59">
+        <v>5.048</v>
+      </c>
+      <c r="V59">
+        <v>-57.652999999999999</v>
+      </c>
+      <c r="W59">
+        <v>-9.6069999999999993</v>
+      </c>
+      <c r="X59">
+        <v>65.688000000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="AA59">
+        <v>8.4190000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>77.924000000000007</v>
+      </c>
+      <c r="D60">
+        <v>851.85500000000002</v>
+      </c>
+      <c r="E60">
+        <v>93.709000000000003</v>
+      </c>
+      <c r="F60">
+        <v>248.26</v>
+      </c>
+      <c r="G60">
+        <v>845.13400000000001</v>
+      </c>
+      <c r="H60">
+        <v>1111.5820000000001</v>
+      </c>
+      <c r="I60">
+        <v>236.86799999999999</v>
+      </c>
+      <c r="J60">
+        <v>491.82</v>
+      </c>
+      <c r="K60">
+        <v>3.43</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>320.77800000000002</v>
+      </c>
+      <c r="O60">
+        <v>850.077</v>
+      </c>
+      <c r="P60">
+        <v>498.68</v>
+      </c>
+      <c r="Q60">
+        <v>33.896000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>261.505</v>
+      </c>
+      <c r="U60">
+        <v>38.944000000000003</v>
+      </c>
+      <c r="V60">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="W60">
+        <v>-11.247999999999999</v>
+      </c>
+      <c r="X60">
+        <v>38.107999999999997</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>77.924000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>39.445999999999998</v>
+      </c>
+      <c r="D61">
+        <v>645.779</v>
+      </c>
+      <c r="E61">
+        <v>70.399000000000001</v>
+      </c>
+      <c r="F61">
+        <v>184.28800000000001</v>
+      </c>
+      <c r="G61">
+        <v>676.18299999999999</v>
+      </c>
+      <c r="H61">
+        <v>942.39599999999996</v>
+      </c>
+      <c r="I61">
+        <v>170.58199999999999</v>
+      </c>
+      <c r="J61">
+        <v>393.06700000000001</v>
+      </c>
+      <c r="K61">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>249.679</v>
+      </c>
+      <c r="O61">
+        <v>678.71699999999998</v>
+      </c>
+      <c r="P61">
+        <v>399.64299999999997</v>
+      </c>
+      <c r="Q61">
+        <v>-9.44</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>263.67899999999997</v>
+      </c>
+      <c r="U61">
+        <v>29.504000000000001</v>
+      </c>
+      <c r="V61">
+        <v>134.62899999999999</v>
+      </c>
+      <c r="W61">
+        <v>-11.153</v>
+      </c>
+      <c r="X61">
+        <v>-136.26</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AA61">
+        <v>39.447000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="D62">
+        <v>415.07499999999999</v>
+      </c>
+      <c r="E62">
+        <v>13.63</v>
+      </c>
+      <c r="F62">
+        <v>118.295</v>
+      </c>
+      <c r="G62">
+        <v>661.74400000000003</v>
+      </c>
+      <c r="H62">
+        <v>934.36099999999999</v>
+      </c>
+      <c r="I62">
+        <v>246.554</v>
+      </c>
+      <c r="J62">
+        <v>326.34500000000003</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>304.84500000000003</v>
+      </c>
+      <c r="O62">
+        <v>675.95299999999997</v>
+      </c>
+      <c r="P62">
+        <v>328.04500000000002</v>
+      </c>
+      <c r="Q62">
+        <v>-16.266999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>3800</v>
+      </c>
+      <c r="T62">
+        <v>258.40800000000002</v>
+      </c>
+      <c r="U62">
+        <v>13.237</v>
+      </c>
+      <c r="V62">
+        <v>68.066999999999993</v>
+      </c>
+      <c r="W62">
+        <v>-11.109</v>
+      </c>
+      <c r="X62">
+        <v>-75.34</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AA62">
+        <v>2.4860000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>16.370999999999999</v>
+      </c>
+      <c r="D63">
+        <v>515.25</v>
+      </c>
+      <c r="E63">
+        <v>67.802000000000007</v>
+      </c>
+      <c r="F63">
+        <v>143.023</v>
+      </c>
+      <c r="G63">
+        <v>907.67399999999998</v>
+      </c>
+      <c r="H63">
+        <v>1193.241</v>
+      </c>
+      <c r="I63">
+        <v>438.70499999999998</v>
+      </c>
+      <c r="J63">
+        <v>444.46100000000001</v>
+      </c>
+      <c r="K63">
+        <v>5.9960000000000004</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-235.65199999999999</v>
+      </c>
+      <c r="N63">
+        <v>494.07100000000003</v>
+      </c>
+      <c r="O63">
+        <v>984.23699999999997</v>
+      </c>
+      <c r="P63">
+        <v>456.67899999999997</v>
+      </c>
+      <c r="Q63">
+        <v>-3.2719999999999998</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>209.00399999999999</v>
+      </c>
+      <c r="U63">
+        <v>9.9649999999999999</v>
+      </c>
+      <c r="V63">
+        <v>-39.753</v>
+      </c>
+      <c r="W63">
+        <v>-10.927</v>
+      </c>
+      <c r="X63">
+        <v>53.115000000000002</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA63">
+        <v>16.370999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>85.435000000000002</v>
+      </c>
+      <c r="D64">
+        <v>918.88900000000001</v>
+      </c>
+      <c r="E64">
+        <v>119.113</v>
+      </c>
+      <c r="F64">
+        <v>270.73599999999999</v>
+      </c>
+      <c r="G64">
+        <v>893.39400000000001</v>
+      </c>
+      <c r="H64">
+        <v>1195.663</v>
+      </c>
+      <c r="I64">
+        <v>265.34899999999999</v>
+      </c>
+      <c r="J64">
+        <v>493.78300000000002</v>
+      </c>
+      <c r="K64">
+        <v>6.8230000000000004</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>387.16500000000002</v>
+      </c>
+      <c r="O64">
+        <v>927.06200000000001</v>
+      </c>
+      <c r="P64">
+        <v>507.77499999999998</v>
+      </c>
+      <c r="Q64">
+        <v>20.585999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>268.601</v>
+      </c>
+      <c r="U64">
+        <v>30.550999999999998</v>
+      </c>
+      <c r="V64">
+        <v>25.995999999999999</v>
+      </c>
+      <c r="W64">
+        <v>-13.03</v>
+      </c>
+      <c r="X64">
+        <v>23.556000000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AA64">
+        <v>85.435000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>44.533999999999999</v>
+      </c>
+      <c r="D65">
+        <v>691.42899999999997</v>
+      </c>
+      <c r="E65">
+        <v>81.072000000000003</v>
+      </c>
+      <c r="F65">
+        <v>199.55099999999999</v>
+      </c>
+      <c r="G65">
+        <v>736.22500000000002</v>
+      </c>
+      <c r="H65">
+        <v>1037.521</v>
+      </c>
+      <c r="I65">
+        <v>199.922</v>
+      </c>
+      <c r="J65">
+        <v>388.89100000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>327.87400000000002</v>
+      </c>
+      <c r="O65">
+        <v>763.06899999999996</v>
+      </c>
+      <c r="P65">
+        <v>396.363</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25900000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>274.452</v>
+      </c>
+      <c r="U65">
+        <v>30.292000000000002</v>
+      </c>
+      <c r="V65">
+        <v>156.92699999999999</v>
+      </c>
+      <c r="W65">
+        <v>-13.05</v>
+      </c>
+      <c r="X65">
+        <v>-152.36799999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA65">
+        <v>44.533999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="D66">
+        <v>445.23500000000001</v>
+      </c>
+      <c r="E66">
+        <v>14.483000000000001</v>
+      </c>
+      <c r="F66">
+        <v>127.777</v>
+      </c>
+      <c r="G66">
+        <v>695.55700000000002</v>
+      </c>
+      <c r="H66">
+        <v>994.09500000000003</v>
+      </c>
+      <c r="I66">
+        <v>230.72800000000001</v>
+      </c>
+      <c r="J66">
+        <v>436.93700000000001</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>296.22000000000003</v>
+      </c>
+      <c r="O66">
+        <v>786.59799999999996</v>
+      </c>
+      <c r="P66">
+        <v>438.04199999999997</v>
+      </c>
+      <c r="Q66">
+        <v>-8.3360000000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3900</v>
+      </c>
+      <c r="T66">
+        <v>207.49700000000001</v>
+      </c>
+      <c r="U66">
+        <v>21.956</v>
+      </c>
+      <c r="V66">
+        <v>22.207999999999998</v>
+      </c>
+      <c r="W66">
+        <v>-12.742000000000001</v>
+      </c>
+      <c r="X66">
+        <v>-23.975000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA66">
+        <v>2.6150000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>22.280999999999999</v>
+      </c>
+      <c r="D67">
+        <v>546.44100000000003</v>
+      </c>
+      <c r="E67">
+        <v>61.264000000000003</v>
+      </c>
+      <c r="F67">
+        <v>153.62100000000001</v>
+      </c>
+      <c r="G67">
+        <v>967.05200000000002</v>
+      </c>
+      <c r="H67">
+        <v>1280.8689999999999</v>
+      </c>
+      <c r="I67">
+        <v>465.928</v>
+      </c>
+      <c r="J67">
+        <v>480.44200000000001</v>
+      </c>
+      <c r="K67">
+        <v>9.4039999999999999</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-227.59</v>
+      </c>
+      <c r="N67">
+        <v>524.68499999999995</v>
+      </c>
+      <c r="O67">
+        <v>1055.7909999999999</v>
+      </c>
+      <c r="P67">
+        <v>492.541</v>
+      </c>
+      <c r="Q67">
+        <v>-8.5470000000000006</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>225.078</v>
+      </c>
+      <c r="U67">
+        <v>13.409000000000001</v>
+      </c>
+      <c r="V67">
+        <v>-32.423999999999999</v>
+      </c>
+      <c r="W67">
+        <v>-12.798999999999999</v>
+      </c>
+      <c r="X67">
+        <v>42.466000000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>2E-3</v>
+      </c>
+      <c r="AA67">
+        <v>22.280999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>94.903999999999996</v>
+      </c>
+      <c r="D68">
+        <v>988.16300000000001</v>
+      </c>
+      <c r="E68">
+        <v>112.80200000000001</v>
+      </c>
+      <c r="F68">
+        <v>289.66399999999999</v>
+      </c>
+      <c r="G68">
+        <v>955.27</v>
+      </c>
+      <c r="H68">
+        <v>1279.136</v>
+      </c>
+      <c r="I68">
+        <v>273.30900000000003</v>
+      </c>
+      <c r="J68">
+        <v>538.57899999999995</v>
+      </c>
+      <c r="K68">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>386.435</v>
+      </c>
+      <c r="O68">
+        <v>975.87699999999995</v>
+      </c>
+      <c r="P68">
+        <v>555.69200000000001</v>
+      </c>
+      <c r="Q68">
+        <v>13.257</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>303.25900000000001</v>
+      </c>
+      <c r="U68">
+        <v>26.666</v>
+      </c>
+      <c r="V68">
+        <v>-8.9209999999999994</v>
+      </c>
+      <c r="W68">
+        <v>-15.308999999999999</v>
+      </c>
+      <c r="X68">
+        <v>40.651000000000003</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>1E-3</v>
+      </c>
+      <c r="AA68">
+        <v>94.903000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>48.783000000000001</v>
+      </c>
+      <c r="D69">
+        <v>743.40099999999995</v>
+      </c>
+      <c r="E69">
+        <v>90.141999999999996</v>
+      </c>
+      <c r="F69">
+        <v>216.60599999999999</v>
+      </c>
+      <c r="G69">
+        <v>798.31299999999999</v>
+      </c>
+      <c r="H69">
+        <v>1121.924</v>
+      </c>
+      <c r="I69">
+        <v>209.06200000000001</v>
+      </c>
+      <c r="J69">
+        <v>555.96400000000006</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>305.55799999999999</v>
+      </c>
+      <c r="O69">
+        <v>911.38</v>
+      </c>
+      <c r="P69">
+        <v>566.36400000000003</v>
+      </c>
+      <c r="Q69">
+        <v>9.7319999999999993</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>210.54400000000001</v>
+      </c>
+      <c r="U69">
+        <v>36.398000000000003</v>
+      </c>
+      <c r="V69">
+        <v>153.36500000000001</v>
+      </c>
+      <c r="W69">
+        <v>-15.057</v>
+      </c>
+      <c r="X69">
+        <v>-135.863</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>1E-3</v>
+      </c>
+      <c r="AA69">
+        <v>48.783000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>25.664999999999999</v>
+      </c>
+      <c r="D70">
+        <v>510.18299999999999</v>
+      </c>
+      <c r="E70">
+        <v>22.783999999999999</v>
+      </c>
+      <c r="F70">
+        <v>145.398</v>
+      </c>
+      <c r="G70">
+        <v>782.24800000000005</v>
+      </c>
+      <c r="H70">
+        <v>1101.0619999999999</v>
+      </c>
+      <c r="I70">
+        <v>245.249</v>
+      </c>
+      <c r="J70">
+        <v>508.815</v>
+      </c>
+      <c r="K70">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>321.56599999999997</v>
+      </c>
+      <c r="O70">
+        <v>877.91600000000005</v>
+      </c>
+      <c r="P70">
+        <v>520.35299999999995</v>
+      </c>
+      <c r="Q70">
+        <v>-6.4580000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>4000</v>
+      </c>
+      <c r="T70">
+        <v>223.14599999999999</v>
+      </c>
+      <c r="U70">
+        <v>29.94</v>
+      </c>
+      <c r="V70">
+        <v>63.290999999999997</v>
+      </c>
+      <c r="W70">
+        <v>-14.864000000000001</v>
+      </c>
+      <c r="X70">
+        <v>-61.703000000000003</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>25.664999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>31.338999999999999</v>
+      </c>
+      <c r="D71">
+        <v>585.9</v>
+      </c>
+      <c r="E71">
+        <v>75.888999999999996</v>
+      </c>
+      <c r="F71">
+        <v>166.07300000000001</v>
+      </c>
+      <c r="G71">
+        <v>1050.9059999999999</v>
+      </c>
+      <c r="H71">
+        <v>1379.6659999999999</v>
+      </c>
+      <c r="I71">
+        <v>467.79500000000002</v>
+      </c>
+      <c r="J71">
+        <v>547.32399999999996</v>
+      </c>
+      <c r="K71">
+        <v>12.263</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-190.86</v>
+      </c>
+      <c r="N71">
+        <v>534.08500000000004</v>
+      </c>
+      <c r="O71">
+        <v>1129.8810000000001</v>
+      </c>
+      <c r="P71">
+        <v>568.11</v>
+      </c>
+      <c r="Q71">
+        <v>-21.137</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>249.785</v>
+      </c>
+      <c r="U71">
+        <v>8.8030000000000008</v>
+      </c>
+      <c r="V71">
+        <v>-44.149000000000001</v>
+      </c>
+      <c r="W71">
+        <v>-15.010999999999999</v>
+      </c>
+      <c r="X71">
+        <v>38.204999999999998</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>31.338999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="D72">
+        <v>1057.8040000000001</v>
+      </c>
+      <c r="E72">
+        <v>135.10400000000001</v>
+      </c>
+      <c r="F72">
+        <v>308.65499999999997</v>
+      </c>
+      <c r="G72">
+        <v>1070.3340000000001</v>
+      </c>
+      <c r="H72">
+        <v>1404.2809999999999</v>
+      </c>
+      <c r="I72">
+        <v>300.23200000000003</v>
+      </c>
+      <c r="J72">
+        <v>635.65800000000002</v>
+      </c>
+      <c r="K72">
+        <v>14.058999999999999</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>404.96499999999997</v>
+      </c>
+      <c r="O72">
+        <v>1090.48</v>
+      </c>
+      <c r="P72">
+        <v>657.12</v>
+      </c>
+      <c r="Q72">
+        <v>33.363999999999997</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>313.80099999999999</v>
+      </c>
+      <c r="U72">
+        <v>42.167000000000002</v>
+      </c>
+      <c r="V72">
+        <v>7.34</v>
+      </c>
+      <c r="W72">
+        <v>-18.183</v>
+      </c>
+      <c r="X72">
+        <v>35.923999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>117.04900000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>69.260999999999996</v>
+      </c>
+      <c r="D73">
+        <v>811.31100000000004</v>
+      </c>
+      <c r="E73">
+        <v>90.775000000000006</v>
+      </c>
+      <c r="F73">
+        <v>235.00299999999999</v>
+      </c>
+      <c r="G73">
+        <v>952.90599999999995</v>
+      </c>
+      <c r="H73">
+        <v>1283.758</v>
+      </c>
+      <c r="I73">
+        <v>204.70599999999999</v>
+      </c>
+      <c r="J73">
+        <v>571.36</v>
+      </c>
+      <c r="K73">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>289.68799999999999</v>
+      </c>
+      <c r="O73">
+        <v>911.02</v>
+      </c>
+      <c r="P73">
+        <v>580.70299999999997</v>
+      </c>
+      <c r="Q73">
+        <v>-6.4740000000000002</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>372.738</v>
+      </c>
+      <c r="U73">
+        <v>35.692999999999998</v>
+      </c>
+      <c r="V73">
+        <v>88.069000000000003</v>
+      </c>
+      <c r="W73">
+        <v>-18.177</v>
+      </c>
+      <c r="X73">
+        <v>-91.468000000000004</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>69.260999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>16.812000000000001</v>
+      </c>
+      <c r="D74">
+        <v>543.08199999999999</v>
+      </c>
+      <c r="E74">
+        <v>10.269</v>
+      </c>
+      <c r="F74">
+        <v>160.441</v>
+      </c>
+      <c r="G74">
+        <v>915.24400000000003</v>
+      </c>
+      <c r="H74">
+        <v>1240.8710000000001</v>
+      </c>
+      <c r="I74">
+        <v>237.83500000000001</v>
+      </c>
+      <c r="J74">
+        <v>657.59299999999996</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>305.61</v>
+      </c>
+      <c r="O74">
+        <v>1017.2809999999999</v>
+      </c>
+      <c r="P74">
+        <v>666.76099999999997</v>
+      </c>
+      <c r="Q74">
+        <v>-19.335000000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>4000</v>
+      </c>
+      <c r="T74">
+        <v>223.59</v>
+      </c>
+      <c r="U74">
+        <v>16.358000000000001</v>
+      </c>
+      <c r="V74">
+        <v>67.396000000000001</v>
+      </c>
+      <c r="W74">
+        <v>-18.059000000000001</v>
+      </c>
+      <c r="X74">
+        <v>-80.231999999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>16.812000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>32.637</v>
+      </c>
+      <c r="D75">
+        <v>597.45600000000002</v>
+      </c>
+      <c r="E75">
+        <v>72.352000000000004</v>
+      </c>
+      <c r="F75">
+        <v>174.631</v>
+      </c>
+      <c r="G75">
+        <v>1173.566</v>
+      </c>
+      <c r="H75">
+        <v>1678.35</v>
+      </c>
+      <c r="I75">
+        <v>472.48700000000002</v>
+      </c>
+      <c r="J75">
+        <v>677.24300000000005</v>
+      </c>
+      <c r="K75">
+        <v>13.714</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-267.89699999999999</v>
+      </c>
+      <c r="N75">
+        <v>597.62300000000005</v>
+      </c>
+      <c r="O75">
+        <v>1453.473</v>
+      </c>
+      <c r="P75">
+        <v>877.49099999999999</v>
+      </c>
+      <c r="Q75">
+        <v>12.223000000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>224.87700000000001</v>
+      </c>
+      <c r="U75">
+        <v>28.581</v>
+      </c>
+      <c r="V75">
+        <v>28.803999999999998</v>
+      </c>
+      <c r="W75">
+        <v>-17.818999999999999</v>
+      </c>
+      <c r="X75">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="Y75">
+        <v>122.77</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>32.637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>131.38999999999999</v>
+      </c>
+      <c r="D76">
+        <v>1121.328</v>
+      </c>
+      <c r="E76">
+        <v>127.26</v>
+      </c>
+      <c r="F76">
+        <v>330.31400000000002</v>
+      </c>
+      <c r="G76">
+        <v>1183.1890000000001</v>
+      </c>
+      <c r="H76">
+        <v>1690.5820000000001</v>
+      </c>
+      <c r="I76">
+        <v>342.33499999999998</v>
+      </c>
+      <c r="J76">
+        <v>668.36300000000006</v>
+      </c>
+      <c r="K76">
+        <v>15.836</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>503.62700000000001</v>
+      </c>
+      <c r="O76">
+        <v>1347.413</v>
+      </c>
+      <c r="P76">
+        <v>868.28899999999999</v>
+      </c>
+      <c r="Q76">
+        <v>32.113</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>343.16899999999998</v>
+      </c>
+      <c r="U76">
+        <v>60.694000000000003</v>
+      </c>
+      <c r="V76">
+        <v>68.637</v>
+      </c>
+      <c r="W76">
+        <v>-21.934000000000001</v>
+      </c>
+      <c r="X76">
+        <v>-23.148</v>
+      </c>
+      <c r="Y76">
+        <v>119.38</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>131.38999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>79.524000000000001</v>
+      </c>
+      <c r="D77">
+        <v>898.5</v>
+      </c>
+      <c r="E77">
+        <v>95.971000000000004</v>
+      </c>
+      <c r="F77">
+        <v>257.93099999999998</v>
+      </c>
+      <c r="G77">
+        <v>973.09199999999998</v>
+      </c>
+      <c r="H77">
+        <v>1481.4079999999999</v>
+      </c>
+      <c r="I77">
+        <v>214.309</v>
+      </c>
+      <c r="J77">
+        <v>535.72</v>
+      </c>
+      <c r="K77">
+        <v>2.1160000000000001</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>363.63299999999998</v>
+      </c>
+      <c r="O77">
+        <v>1075.4380000000001</v>
+      </c>
+      <c r="P77">
+        <v>726.51400000000001</v>
+      </c>
+      <c r="Q77">
+        <v>-24.001000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>405.97</v>
+      </c>
+      <c r="U77">
+        <v>36.692999999999998</v>
+      </c>
+      <c r="V77">
+        <v>145.81200000000001</v>
+      </c>
+      <c r="W77">
+        <v>-21.998999999999999</v>
+      </c>
+      <c r="X77">
+        <v>-162.536</v>
+      </c>
+      <c r="Y77">
+        <v>121.39700000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>79.525000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>18.024000000000001</v>
+      </c>
+      <c r="D78">
+        <v>582.23400000000004</v>
+      </c>
+      <c r="E78">
+        <v>12.983000000000001</v>
+      </c>
+      <c r="F78">
+        <v>162.05000000000001</v>
+      </c>
+      <c r="G78">
+        <v>973.56799999999998</v>
+      </c>
+      <c r="H78">
+        <v>1483.2660000000001</v>
+      </c>
+      <c r="I78">
+        <v>261.96300000000002</v>
+      </c>
+      <c r="J78">
+        <v>499.66199999999998</v>
+      </c>
+      <c r="K78">
+        <v>1.647</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>390.846</v>
+      </c>
+      <c r="O78">
+        <v>1073.086</v>
+      </c>
+      <c r="P78">
+        <v>690.66099999999994</v>
+      </c>
+      <c r="Q78">
+        <v>-8.11</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>4500</v>
+      </c>
+      <c r="T78">
+        <v>410.18</v>
+      </c>
+      <c r="U78">
+        <v>28.582999999999998</v>
+      </c>
+      <c r="V78">
+        <v>55.523000000000003</v>
+      </c>
+      <c r="W78">
+        <v>-22.02</v>
+      </c>
+      <c r="X78">
+        <v>-56.752000000000002</v>
+      </c>
+      <c r="Y78">
+        <v>122.01</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>18.024000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>30.911999999999999</v>
+      </c>
+      <c r="D79">
+        <v>677.28800000000001</v>
+      </c>
+      <c r="E79">
+        <v>66.328000000000003</v>
+      </c>
+      <c r="F79">
+        <v>189.62899999999999</v>
+      </c>
+      <c r="G79">
+        <v>1238.3779999999999</v>
+      </c>
+      <c r="H79">
+        <v>1747.7809999999999</v>
+      </c>
+      <c r="I79">
+        <v>517.62</v>
+      </c>
+      <c r="J79">
+        <v>569.697</v>
+      </c>
+      <c r="K79">
+        <v>8.1259999999999994</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-278.02699999999999</v>
+      </c>
+      <c r="N79">
+        <v>652.29</v>
+      </c>
+      <c r="O79">
+        <v>1399.383</v>
+      </c>
+      <c r="P79">
+        <v>762.21500000000003</v>
+      </c>
+      <c r="Q79">
+        <v>-10.775</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>348.39800000000002</v>
+      </c>
+      <c r="U79">
+        <v>17.808</v>
+      </c>
+      <c r="V79">
+        <v>19.728000000000002</v>
+      </c>
+      <c r="W79">
+        <v>-22.146999999999998</v>
+      </c>
+      <c r="X79">
+        <v>-8.1489999999999991</v>
+      </c>
+      <c r="Y79">
+        <v>120.462</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>30.911999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>157.55500000000001</v>
+      </c>
+      <c r="D80">
+        <v>1280.846</v>
+      </c>
+      <c r="E80">
+        <v>144.84200000000001</v>
+      </c>
+      <c r="F80">
+        <v>373.48099999999999</v>
+      </c>
+      <c r="G80">
+        <v>1137.1469999999999</v>
+      </c>
+      <c r="H80">
+        <v>1654.797</v>
+      </c>
+      <c r="I80">
+        <v>346.27199999999999</v>
+      </c>
+      <c r="J80">
+        <v>429.24599999999998</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>552.11599999999999</v>
+      </c>
+      <c r="O80">
+        <v>1168.0060000000001</v>
+      </c>
+      <c r="P80">
+        <v>638.69899999999996</v>
+      </c>
+      <c r="Q80">
+        <v>26.376999999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>486.791</v>
+      </c>
+      <c r="U80">
+        <v>44.185000000000002</v>
+      </c>
+      <c r="V80">
+        <v>201.47200000000001</v>
+      </c>
+      <c r="W80">
+        <v>-23.164999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-169.64500000000001</v>
+      </c>
+      <c r="Y80">
+        <v>128.23699999999999</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>157.55500000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>119.098</v>
+      </c>
+      <c r="D81">
+        <v>1139.229</v>
+      </c>
+      <c r="E81">
+        <v>135.55500000000001</v>
+      </c>
+      <c r="F81">
+        <v>328.69799999999998</v>
+      </c>
+      <c r="G81">
+        <v>1066.681</v>
+      </c>
+      <c r="H81">
+        <v>1587.5889999999999</v>
+      </c>
+      <c r="I81">
+        <v>268.41199999999998</v>
+      </c>
+      <c r="J81">
+        <v>328.22500000000002</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>482.51799999999997</v>
+      </c>
+      <c r="O81">
+        <v>998.08799999999997</v>
+      </c>
+      <c r="P81">
+        <v>536.76199999999994</v>
+      </c>
+      <c r="Q81">
+        <v>30.564</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>589.50099999999998</v>
+      </c>
+      <c r="U81">
+        <v>74.748999999999995</v>
+      </c>
+      <c r="V81">
+        <v>167.714</v>
+      </c>
+      <c r="W81">
+        <v>-23.286999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-122.367</v>
+      </c>
+      <c r="Y81">
+        <v>125.023</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>119.098</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>59.173000000000002</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>839.26099999999997</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>28.745000000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>239.095</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1121.9269999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>1739.67</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>266.75299999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>404.149</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>483.24900000000002</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1100.2</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>636.15300000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-40.621000000000002</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>4500</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>639.47</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>34.128</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>8.6669999999999998</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-23.33</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>55.79</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>146.88800000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>59.173000000000002</v>
       </c>
     </row>
